--- a/DOM_Banner/output/dept0713/Christian Bime_2023.xlsx
+++ b/DOM_Banner/output/dept0713/Christian Bime_2023.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P19"/>
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -365,75 +365,80 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>affiliation</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>id</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>display_name</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>publication_date</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>so</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>host_organization</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>url</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>license</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>version</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>oa_status</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>language</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>cited_by_count</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>publication_year</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>pmid</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>doi</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>type</t>
         </is>
@@ -447,75 +452,80 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>Harvard Medical School, Boston, Massachusetts; Massachusetts General Hospital, Boston; University of Colorado Anschutz Medical Campus, Aurora; Brigham and Women’s Hospital, Boston, Massachusetts; University of Alabama at Birmingham; Brigham and Women’s Hospital, Boston, Massachusetts; Harvard Medical School, Boston, Massachusetts; Case Western Reserve University, Cleveland, Ohio; Patient-Led Research Collaborative, Calabasas, California; Icahn School of Medicine at Mount Sinai, New York, New York; The University of Arizona College of Medicine, Tucson; Stanford University School of Medicine, Stanford, California; Emory University School of Medicine, Atlanta, Georgia; Massachusetts General Hospital, Boston; Massachusetts General Hospital, Boston; Massachusetts General Hospital, Boston; Mass General Brigham, Boston, Massachusetts; New York University Grossman School of Medicine, New York; Harvard Medical School, Boston, Massachusetts; Massachusetts General Hospital, Boston; for the RECOVER Consortium; for the RECOVER Consortium; for the RECOVER Consortium; for the RECOVER Consortium; for the RECOVER Consortium; for the RECOVER Consortium; for the RECOVER Consortium; for the RECOVER Consortium; for the RECOVER Consortium; for the RECOVER Consortium; for the RECOVER Consortium; for the RECOVER Consortium; for the RECOVER Consortium; for the RECOVER Consortium; for the RECOVER Consortium; for the RECOVER Consortium; for the RECOVER Consortium; for the RECOVER Consortium; for the RECOVER Consortium; for the RECOVER Consortium; for the RECOVER Consortium; for the RECOVER Consortium; for the RECOVER Consortium; for the RECOVER Consortium; for the RECOVER Consortium; for the RECOVER Consortium; for the RECOVER Consortium; for the RECOVER Consortium; for the RECOVER Consortium; for the RECOVER Consortium; for the RECOVER Consortium; for the RECOVER Consortium; for the RECOVER Consortium; for the RECOVER Consortium; for the RECOVER Consortium; for the RECOVER Consortium; for the RECOVER Consortium; for the RECOVER Consortium; for the RECOVER Consortium; for the RECOVER Consortium; for the RECOVER Consortium; for the RECOVER Consortium; for the RECOVER Consortium; for the RECOVER Consortium; for the RECOVER Consortium; for the RECOVER Consortium; for the RECOVER Consortium; for the RECOVER Consortium; for the RECOVER Consortium; for the RECOVER Consortium; for the RECOVER Consortium; for the RECOVER Consortium; for the RECOVER Consortium; for the RECOVER Consortium; for the RECOVER Consortium; for the RECOVER Consortium; for the RECOVER Consortium; for the RECOVER Consortium; for the RECOVER Consortium; for the RECOVER Consortium; for the RECOVER Consortium; for the RECOVER Consortium; for the RECOVER Consortium; for the RECOVER Consortium; for the RECOVER Consortium; for the RECOVER Consortium; for the RECOVER Consortium; for the RECOVER Consortium; for the RECOVER Consortium; for the RECOVER Consortium; for the RECOVER Consortium; for the RECOVER Consortium; for the RECOVER Consortium; for the RECOVER Consortium; for the RECOVER Consortium; for the RECOVER Consortium; for the RECOVER Consortium; for the RECOVER Consortium; for the RECOVER Consortium; for the RECOVER Consortium; for the RECOVER Consortium; for the RECOVER Consortium; for the RECOVER Consortium</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4378212766</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>Development of a Definition of Postacute Sequelae of SARS-CoV-2 Infection</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>2023-06-13</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>JAMA</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>American Medical Association</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>https://doi.org/10.1001/jama.2023.8823</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr">
+      <c r="J2" t="inlineStr">
         <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>bronze</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>126</t>
-        </is>
-      </c>
       <c r="M2" t="inlineStr">
         <is>
+          <t>141</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr">
+      <c r="O2" t="inlineStr">
         <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/37278994</t>
         </is>
       </c>
-      <c r="O2" t="inlineStr">
+      <c r="P2" t="inlineStr">
         <is>
           <t>https://doi.org/10.1001/jama.2023.8823</t>
         </is>
       </c>
-      <c r="P2" t="inlineStr">
+      <c r="Q2" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -529,75 +539,80 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t xml:space="preserve">; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; </t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4360989948</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="D3" t="inlineStr">
         <is>
           <t>Race and Ethnicity in Pulmonary Function Test Interpretation: An Official American Thoracic Society Statement</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>2023-04-15</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>American Journal of Respiratory and Critical Care Medicine</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>American Thoracic Society</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>https://doi.org/10.1164/rccm.202302-0310st</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="I3" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="I3" t="inlineStr">
+      <c r="J3" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="J3" t="inlineStr">
+      <c r="K3" t="inlineStr">
         <is>
           <t>green</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
+      <c r="L3" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L3" t="inlineStr">
+      <c r="M3" t="inlineStr">
         <is>
           <t>43</t>
         </is>
       </c>
-      <c r="M3" t="inlineStr">
+      <c r="N3" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N3" t="inlineStr">
+      <c r="O3" t="inlineStr">
         <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/36973004</t>
         </is>
       </c>
-      <c r="O3" t="inlineStr">
+      <c r="P3" t="inlineStr">
         <is>
           <t>https://doi.org/10.1164/rccm.202302-0310st</t>
         </is>
       </c>
-      <c r="P3" t="inlineStr">
+      <c r="Q3" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -611,75 +626,80 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>Division of Infectious Diseases, Children's Hospital Los Angeles, Keck School of Medicine, University of Southern California, Los Angeles, United States.; Division of Infectious Diseases and Geographic Medicine, Department of Medicine, Stanford University, Stanford, United States.; Division of Experimental Medicine, University of California, San Francisco, San Francisco, United States.; Department of Biochemistry &amp; Molecular Biology, Howard University College of Medicine, Washington, United States.; Division of Pulmonary, Allergy, Critical Care &amp; Sleep Medicine, Department of Medicine, University of Arizona College of Medicine, Tucson, United States.; National Center for Complementary and Integrative Health, National Institutes of Health, Bethesda, United States.; Seattle Children's Hospital, Division of Pediatric Cardiology, Department of Pediatrics, University of Washington, Seattle, United States.; Public Health Research Institute and Department of Medicine, Rutgers New Jersey Medical School, Newark, United States.; Department of Biochemistry and Molecular Genetics, University of Illinois, College of Medicine, Chicago, United States.</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4378347399</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="D4" t="inlineStr">
         <is>
           <t>Immune mechanisms underlying COVID-19 pathology and post-acute sequelae of SARS-CoV-2 infection (PASC)</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>2023-05-26</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>eLife</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>eLife Sciences Publications Ltd</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>https://doi.org/10.7554/elife.86014</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
+      <c r="I4" t="inlineStr">
         <is>
           <t>public-domain</t>
         </is>
       </c>
-      <c r="I4" t="inlineStr">
+      <c r="J4" t="inlineStr">
         <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J4" t="inlineStr">
+      <c r="K4" t="inlineStr">
         <is>
           <t>gold</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr">
+      <c r="L4" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L4" t="inlineStr">
+      <c r="M4" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="M4" t="inlineStr">
+      <c r="N4" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N4" t="inlineStr">
+      <c r="O4" t="inlineStr">
         <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/37233729</t>
         </is>
       </c>
-      <c r="O4" t="inlineStr">
+      <c r="P4" t="inlineStr">
         <is>
           <t>https://doi.org/10.7554/elife.86014</t>
         </is>
       </c>
-      <c r="P4" t="inlineStr">
+      <c r="Q4" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -693,75 +713,80 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>Division of Respirology, Critical Care and Sleep Medicine, Respiratory Research Center, University of Saskatchewan, Saskatoon, SK; Division of Respiratory Care, Department of Cardiopulmonary Sciences Rush University, Chicago, IL; Pulmonary and Critical Care, University of Vermont Larner College of Medicine, Burlington, VT; Pulmonary and Critical Care Medicine, Johns Hopkins University, Baltimore, MD; Department of Community Health and Epidemiology, Dalhousie University, Halifax, NS; Division of Pulmonary, Critical Care, Allergy and Sleep Medicine, Department of Medicine, University of California, San Francisco, San Francisco, CA; University of Arizona College of Medicine, Tucson, AZ; Division of Respirology, McMaster University, Hamilton, ON; Division of Respirology, William Osler Health System, Brampton, ON; Division of Public Health, Infectious Diseases and Occupational Medicine and the Division of Pulmonary and Critical Care Medicine, Mayo Clinic, Rochester, MN; Department of Pediatrics and BC Children’s Research Institute, University of British Columbia, Vancouver, BC, Canada; Pulmonary Function Laboratory, Elliot Health System, Manchester, NH; Temple University Hospital, Philadelphia, PA; ; Health Equity Department, Hennepin Healthcare, Minneapolis, MN; M.C. Townsend Associates, LLC, Pittsburgh, PA; University of Pittsburgh School of Public Health, Pittsburgh, PA; American College of Chest Physicians, Chicago, IL; Chobanian and Avedisian School of Medicine, Boston University, Boston, MA</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4360955442</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>Effect of Race and Ethnicity on Pulmonary Function Testing Interpretation</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>2023-08-01</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>Chest</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>Elsevier BV</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="H5" t="inlineStr">
         <is>
           <t>https://doi.org/10.1016/j.chest.2023.03.026</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
+      <c r="I5" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="I5" t="inlineStr">
+      <c r="J5" t="inlineStr">
         <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J5" t="inlineStr">
+      <c r="K5" t="inlineStr">
         <is>
           <t>bronze</t>
         </is>
       </c>
-      <c r="K5" t="inlineStr">
+      <c r="L5" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L5" t="inlineStr">
+      <c r="M5" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="M5" t="inlineStr">
+      <c r="N5" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N5" t="inlineStr">
+      <c r="O5" t="inlineStr">
         <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/36972760</t>
         </is>
       </c>
-      <c r="O5" t="inlineStr">
+      <c r="P5" t="inlineStr">
         <is>
           <t>https://doi.org/10.1016/j.chest.2023.03.026</t>
         </is>
       </c>
-      <c r="P5" t="inlineStr">
+      <c r="Q5" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -775,75 +800,80 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>Department of Pathology, College of Medicine University of Arizona  Tucson Arizona USA; Department of Medicine, College of Medicine University of Arizona  Tucson Arizona USA; Department of Medicine, College of Medicine University of Arizona  Tucson Arizona USA; Department of Medicine, College of Medicine University of Arizona  Tucson Arizona USA; Department of Medicine, College of Medicine University of Arizona  Tucson Arizona USA; Department of Medicine, College of Medicine University of Arizona  Tucson Arizona USA; Department of Medicine, College of Medicine University of Arizona  Tucson Arizona USA; Department of Medicine, College of Medicine University of Arizona  Phoenix Arizona USA; Department of Medicine, College of Medicine University of Arizona  Tucson Arizona USA; Department of Radiology and the Translational Imaging Center Houston Methodist Hospital and the Houston Methodist Research Institute  Houston Texas USA; Department of Drug Science University of Pavia  Pavia Italy; Department of Pharmacology and Toxicology, College of Pharmacy University of Arizona  Tucson Arizona USA; Department of Medicine, College of Medicine, University of Arizona, Tucson, Arizona, USA</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4321443406</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>Involvement of &lt;scp&gt;eNAMPT&lt;/scp&gt;/&lt;scp&gt;TLR4&lt;/scp&gt; inflammatory signaling in progression of non‐alcoholic fatty liver disease, steatohepatitis, and fibrosis</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>2023-02-21</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>The FASEB Journal</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>Wiley</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="H6" t="inlineStr">
         <is>
           <t>https://doi.org/10.1096/fj.202201972rr</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
+      <c r="I6" t="inlineStr">
         <is>
           <t>cc-by</t>
         </is>
       </c>
-      <c r="I6" t="inlineStr">
+      <c r="J6" t="inlineStr">
         <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J6" t="inlineStr">
+      <c r="K6" t="inlineStr">
         <is>
           <t>hybrid</t>
         </is>
       </c>
-      <c r="K6" t="inlineStr">
+      <c r="L6" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L6" t="inlineStr">
+      <c r="M6" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="M6" t="inlineStr">
+      <c r="N6" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N6" t="inlineStr">
+      <c r="O6" t="inlineStr">
         <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/36809677</t>
         </is>
       </c>
-      <c r="O6" t="inlineStr">
+      <c r="P6" t="inlineStr">
         <is>
           <t>https://doi.org/10.1096/fj.202201972rr</t>
         </is>
       </c>
-      <c r="P6" t="inlineStr">
+      <c r="Q6" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -857,75 +887,80 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>Division of Pulmonary and Critical Care Medicine, College of Medicine University of Arizona Health Sciences  Tucson Arizona USA; Division of Pulmonary and Critical Care Medicine, College of Medicine University of Arizona Health Sciences  Tucson Arizona USA; Division of Pulmonary and Critical Care Medicine, College of Medicine University of Arizona Health Sciences  Tucson Arizona USA; Division of Pulmonary and Critical Care Medicine, College of Medicine University of Arizona Health Sciences  Tucson Arizona USA; Division of Pulmonary and Critical Care Medicine, College of Medicine University of Arizona Health Sciences  Tucson Arizona USA; Division of Pulmonary and Critical Care Medicine, College of Medicine University of Arizona Health Sciences  Tucson Arizona USA; Division of Pulmonary and Critical Care Medicine, College of Medicine University of Arizona Health Sciences  Tucson Arizona USA; Division of Pulmonary and Critical Care Medicine, College of Medicine, University of Arizona Health Sciences, Tucson, Arizona, USA</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4321369220</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>Targeting &lt;i&gt;SELPLG/&lt;/i&gt;P‐selectin glycoprotein ligand 1 in preclinical ARDS: Genetic and epigenetic regulation of the &lt;i&gt;SELPLG&lt;/i&gt; promoter</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>2023-01-01</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>Pulmonary circulation</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="G7" t="inlineStr">
         <is>
           <t>SAGE Publishing</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="H7" t="inlineStr">
         <is>
           <t>https://doi.org/10.1002/pul2.12206</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
+      <c r="I7" t="inlineStr">
         <is>
           <t>cc-by-nc</t>
         </is>
       </c>
-      <c r="I7" t="inlineStr">
+      <c r="J7" t="inlineStr">
         <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J7" t="inlineStr">
+      <c r="K7" t="inlineStr">
         <is>
           <t>gold</t>
         </is>
       </c>
-      <c r="K7" t="inlineStr">
+      <c r="L7" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L7" t="inlineStr">
+      <c r="M7" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="M7" t="inlineStr">
+      <c r="N7" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N7" t="inlineStr">
+      <c r="O7" t="inlineStr">
         <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/36873461</t>
         </is>
       </c>
-      <c r="O7" t="inlineStr">
+      <c r="P7" t="inlineStr">
         <is>
           <t>https://doi.org/10.1002/pul2.12206</t>
         </is>
       </c>
-      <c r="P7" t="inlineStr">
+      <c r="Q7" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -939,75 +974,80 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>Department of Population Health, NYU Grossman School of Medicine, New York, New York, United States of America; Department of Biostatistics, Massachusetts General Hospital, Boston, Massachusetts, United States of America; ; Department of Laboratory Medicine and Pathology, Mayo Clinic, Rochester, Minnesota, United States of America; Patient Led Research Collaboration on COVID-19, Washington, DC, United States of America; Division of Infectious Diseases, Providence Swedish Medical Center, Seattle, Washington, United States of America; Department of Population Health Sciences and Internal Medicine, University of Utah School of Medicine, Salt Lake City, Utah, United States of America; Department of Medicine, West Virginia University, Morgantown, West Virginia, United States of America; Department of Obstetrics, Gynecology, and Reproductive Sciences, University of California, San Francisco, San Francisco, California, United States of America; Division of Geographic Medicine and Infectious Diseases, Tufts Medical Center, Medford, Massachusetts, United States of America; Department of Medicine, University of Illinois Chicago, Chicago, Illinois, United States of America; Department of Medicine, Howard University, Washington, DC, United States of America; Department of Obstetrics and Gynecology, University of Utah Health, Salt Lake City, Utah, United States of America; Body Politic COVID-19 Support Group, Boston, Massachusetts, United States of America; Department of Medicine and Surgery, Health Services Research Center, Emory University School of Medicine, Atlanta, Georgia, United States of America; Patient Led Research Collaboration on COVID-19, Washington, DC, United States of America; Department of Medicine and Rheumatology, The MetroHealth Medical Center, Cleveland, Ohio, United States of America; Department of Neurology, Stony Brook University Renaissance School of Medicine, Stony Brook, New York, United States of America; Department of Medicine, Division of Infectious Diseases and Infectious Diseases, Long School of Medicine, University of Texas Health Science Center San Antonio, San Antonio, Texas, United States of America; Department of Biostatistics, Massachusetts General Hospital, Boston, Massachusetts, United States of America; Swedish Center for Research and Innovation, Providence Swedish Medical Center, Seattle, Washington, United States of America; Department of Epidemiology and Biostatistics, University of California at San Francisco Institute of Global Health Sciences, San Francisco, San Francisco, California, United States of America; College of Science and Health, Department of Health Sciences, DePaul University, Chicago, Illinois, United States of America; Department of Medicine, Howard University, Washington, DC, United States of America; Medical Practice Evaluation Center, Department of Medicine, Massachusetts General Hospital, Harvard Medical School, Boston, Massachusetts, United States of America; Department of Medicine, Emory University, Atlanta, Georgia, United States of America; Center for Emerging Infectious Diseases Policy and Research, Boston University School of Medicine, Boston, Massachusetts, United States of America; Department of Medicine, University of Arizona, Tucson, Arizona, United States of America; Department of Biostatistics, Massachusetts General Hospital, Boston, Massachusetts, United States of America; Department of Clinical Research, Sanford Research, Sioux Falls, South Dakota, United States of America; Department of Emergency Medicine, Stanford University, Stanford, California, United States of America; Department of Pathology, Howard University, Washington, DC, United States of America; Division of Pulmonary and Critical Care, University of Kansas Medical Center, Kansas City, Kansas City, United States of America; Department of Biostatistics, Massachusetts General Hospital, Boston, Massachusetts, United States of America; Charles Bronfman Institute for Personalized Medicine, Icahn School of Medicine at Mount Sinai, New York, New York, United States of America; Division of Infectious Disease, Department of Medicine, Icahn School of Medicine at Mount Sinai, New York, New York, United States of America; Department of Medicine, Brigham and Women’s Hospital, Boston, Massachusetts, United States of America; Department of Medicine, Cedars-Sinai Medical Center, Los Angeles, California, United States of America; Department of Emergency Medicine, University of Illinois Chicago, Chicago, Illinois, United States of America; Department of Neurology, Massachusetts General Hospital, Boston, Massachusetts, United States of America; Department of Medicine, University of Hawaii at Manoa John A. Burns School of Medicine, Honolulu, Hawaii, United States of America; Department of Allergy &amp; Infectious Diseases, University of Washington, Seattle, Washington, United States of America; Department of Biostatistics, George Washington University, Washington, DC, United States of America; Department of Medicine, Emory University, Atlanta, Georgia, United States of America; Department of Obstetrics and Gynecology, The Ohio State University Hospital, Columbus, Ohio, United States of America; Department of Medicine, Emory University, Atlanta, Georgia, United States of America; Department of Medicine, University of California, San Francisco, San Francisco, California, United States of America; Department of Internal Medicine, University of Nebraska Medical Center, Omaha, Nebraska, United States of America; Department of Research Services, University of Illinois College of Medicine, Peoria, Illinois, United States of America; Department of Medicine, Division of Cardiology at Zuckerberg San Francisco General, University of California San Francisco, San Francisco, California, United States of America; MaineHealth Institute for Research, MaineHealth, Scarborough, Maine, United States of America; Department of Medicine, University of Colorado Anschutz Medical Campus, Aurora, Colorado, United States of America; Department of Biomedical Informatics and Clinical and Translational Science Institute, University of Utah, Salt Lake City, Utah, United States of America; Department of Medicine, Division of Infectious Diseases, Emory University School of Medicine, Atlanta, Georgia, United States of America; Department of Pathology, CVPath Institute, Gaithersburg, Maryland, United States of America; Department of Medicine, Division of Infectious Diseases and Infectious Diseases, Long School of Medicine, University of Texas Health Science Center San Antonio, San Antonio, Texas, United States of America; Department of Pediatrics, University of California, San Francisco, San Francisco, California, United States of America; Mile Square Health Center, University of Illinois Chicago, University of Illinois Chicago, Chicago, Illinois, United States of America; Department of Medicine, Tulane University School of Medicine, New Orleans, Louisiana, United States of America; Department of Endocrinology, Diabetes and Bone Disease, Icahn School of Medicine at Mount Sinai, New York, New York, United States of America; Center for Research and Evaluation, Kaiser Permanente of Georgia, Atlanta, Georgia, United States of America; Public Health Research Institute and Department of Medicine, Rutgers New Jersey Medical School, Newark, New Jersey, United States of America; Department of Obstetrics and Gynecology, MetroHealth System, Cleveland, Ohio, United States of America; Department of Medicine, Stanford University, Stanford, California, United States of America; Department of Epidemiology and Population Health, Stanford University School of Medicine, Stanford, California, United States of America; Department of Physiology &amp; Biophysics, University of Mississippi Medical Center, Jackson, Mississippi, United States of America; Clinical Trials, Pennington Biomedical Research Center, Baton Rouge, Louisiana, United States of America; Department of Emergency Medicine, OSF Saint Francis Medical Center, Peoria, Illinois, United States of America; Department of Pulmonary and Critical Care, Emory University School of Medicine, Atlanta, Georgia, United States of America; Department of Internal Medicine University of New Mexico, Health Science Center, Albuquerque, New Mexico, United States of America; Clinical Research Center, Beth Israel Deaconess Medical Center, Boston, Massachusetts, United States of America; Department of Bioengineering, Institute for Systems Biology, Seattle, Washington, United States of America; Clinical Research Center, University Hospitals Cleveland Medical Center, Cleveland, Ohio, United States of America; ; Department of Obstetrics and Gynecology, Christiana Care Health Services, Newark, Delaware, United States of America; Department of Clinical Research, Sanford Research, Sioux Falls, South Dakota, United States of America; Institute for Health Equity Research, Icahn School of Medicine at Mount Sinai, New York, New York, United States of America; Department of Internal Medicine, University of Arizona, Phoenix, Arizona, United States of America; Department of Medicine, University of California, San Francisco, San Francisco, California, United States of America; Department of Obstetrics and Gynecology, Duke University, Durham, North Carolina, United States of America; Department of Medicine, Stanford University, Stanford, California, United States of America; Department of Arthritis &amp; Clinical Immunology, Oklahoma Medical Research Foundation, Oklahoma City, Oklahoma, United States of America; Department of Family Medicine, Cambridge Health Alliance, Cambridge, Massachusetts, United States of America; Department of Pulmonary and Critical Care Medicine, University of Colorado, Aurora, Colorado, United States of America; Department of Biostatistics, University of Alabama at Birmingham, Birmingham, Alabama, United States of America; ; Department of Infectious Diseases, Massachusetts General Hospital, Boston, Massachusetts, United States of America; Department of Medicine, Harvard Medical School, Boston, Massachusetts, United States of America; Department of Medicine, NYU Langone Health, New York, New York, United States of America; Department of Medicine, University of California, San Francisco, San Francisco, California, United States of America; Department of Pediatrics &amp; Department of Research Services, University of Illinois College of Medicine, Peoria, Illinois, United States of America; Department of Infectious Diseases, Massachusetts General Hospital, Boston, Massachusetts, United States of America; Department Integrated Physiology and Molecular Medicine, Pennington Biomedical Research Center, Baton Rouge, Louisiana, United States of America; Department of Internal Medicine, University of Arizona, Phoenix, Arizona, United States of America; Department of Medicine, Stanford University, Stanford, California, United States of America; Department of Medicine, NYU Langone Health, New York, New York, United States of America; Department of Psychiatry, Harvard Medical School, Boston, Massachusetts, United States of America; Department of Internal Medicine and Neurology, University of Arizona College of Medicine Phoenix, Phoenix, Arizona, United States of America; Communications Practice Area, RTI International, Research Triangle Park, North Carolina, United States of America; Department of Internal Medicine, Brigham and Women’s Hospital, Boston, Massachusetts, United States of America</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4381839613</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>Researching COVID to Enhance Recovery (RECOVER) adult study protocol: Rationale, objectives, and design</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>2023-06-23</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>PLOS ONE</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="G8" t="inlineStr">
         <is>
           <t>Public Library of Science</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
+      <c r="H8" t="inlineStr">
         <is>
           <t>https://doi.org/10.1371/journal.pone.0286297</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
+      <c r="I8" t="inlineStr">
         <is>
           <t>cc-by</t>
         </is>
       </c>
-      <c r="I8" t="inlineStr">
+      <c r="J8" t="inlineStr">
         <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J8" t="inlineStr">
+      <c r="K8" t="inlineStr">
         <is>
           <t>gold</t>
         </is>
       </c>
-      <c r="K8" t="inlineStr">
+      <c r="L8" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L8" t="inlineStr">
+      <c r="M8" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="M8" t="inlineStr">
+      <c r="N8" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N8" t="inlineStr">
+      <c r="O8" t="inlineStr">
         <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/37352211</t>
         </is>
       </c>
-      <c r="O8" t="inlineStr">
+      <c r="P8" t="inlineStr">
         <is>
           <t>https://doi.org/10.1371/journal.pone.0286297</t>
         </is>
       </c>
-      <c r="P8" t="inlineStr">
+      <c r="Q8" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -1021,75 +1061,80 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>University of Arizona College of Medicine, Tucson, AZ, USA; University of Arizona College of Medicine, Tucson, AZ, USA; Banner Health, Phoenix, AZ, USA; Banner Health, Phoenix, AZ, USA; Banner Health, Phoenix, AZ, USA; Banner Health, Phoenix, AZ, USA</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4384068065</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>Delayed intubation associated with in-hospital mortality in patients with COVID-19 respiratory failure who fail heated and humified high flow nasal canula</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>2023-07-12</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>BMC Anesthesiology</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="G9" t="inlineStr">
         <is>
           <t>BioMed Central</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
+      <c r="H9" t="inlineStr">
         <is>
           <t>https://doi.org/10.1186/s12871-023-02198-7</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
+      <c r="I9" t="inlineStr">
         <is>
           <t>cc-by</t>
         </is>
       </c>
-      <c r="I9" t="inlineStr">
+      <c r="J9" t="inlineStr">
         <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J9" t="inlineStr">
+      <c r="K9" t="inlineStr">
         <is>
           <t>gold</t>
         </is>
       </c>
-      <c r="K9" t="inlineStr">
+      <c r="L9" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L9" t="inlineStr">
+      <c r="M9" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="M9" t="inlineStr">
+      <c r="N9" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N9" t="inlineStr">
+      <c r="O9" t="inlineStr">
         <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/37438685</t>
         </is>
       </c>
-      <c r="O9" t="inlineStr">
+      <c r="P9" t="inlineStr">
         <is>
           <t>https://doi.org/10.1186/s12871-023-02198-7</t>
         </is>
       </c>
-      <c r="P9" t="inlineStr">
+      <c r="Q9" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -1103,75 +1148,80 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
+          <t xml:space="preserve">; </t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4387249030</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="D10" t="inlineStr">
         <is>
           <t>BEYOND THE MUDPILES OF METABOLIC ACIDOSIS</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>2023-10-01</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>Chest</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="G10" t="inlineStr">
         <is>
           <t>Elsevier BV</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
+      <c r="H10" t="inlineStr">
         <is>
           <t>https://doi.org/10.1016/j.chest.2023.07.1281</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
+      <c r="I10" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="I10" t="inlineStr">
+      <c r="J10" t="inlineStr">
         <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J10" t="inlineStr">
+      <c r="K10" t="inlineStr">
         <is>
           <t>bronze</t>
         </is>
       </c>
-      <c r="K10" t="inlineStr">
+      <c r="L10" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L10" t="inlineStr">
+      <c r="M10" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="M10" t="inlineStr">
+      <c r="N10" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N10" t="inlineStr">
+      <c r="O10" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O10" t="inlineStr">
+      <c r="P10" t="inlineStr">
         <is>
           <t>https://doi.org/10.1016/j.chest.2023.07.1281</t>
         </is>
       </c>
-      <c r="P10" t="inlineStr">
+      <c r="Q10" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -1185,75 +1235,80 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
+          <t>Department of Immunobiology, University of Arizona College of Medicine-Tucson, P.O. Box 245221, 1501 N. Campbell Ave, Tucson, AZ, USA.; Department of Immunobiology, University of Arizona College of Medicine-Tucson, Tucson, USA; Department of Immunobiology, University of Arizona College of Medicine-Tucson, Tucson, USA; Department of Immunobiology, University of Arizona College of Medicine-Tucson, Tucson, USA; Department of Immunobiology, University of Arizona College of Medicine-Tucson, Tucson, USA; Department of Immunobiology, University of Arizona College of Medicine-Tucson, Tucson, USA; Vir, Inc., San Francisco, USA; Department of Immunobiology, University of Arizona College of Medicine-Tucson, Tucson, USA; Department of Immunobiology, University of Arizona College of Medicine-Tucson, Tucson, USA; Department of Medicine, University of Arizona College of Medicine-Phoenix, Phoenix, USA; Division of Pulmonary Medicine, Department of Medicine, Indiana University, Indianapolis, USA; Division of Pulmonary Medicine, Department of Medicine, Indiana University, Indianapolis, USA; Department of Medicine, University of Arizona College of Medicine-Phoenix, Phoenix, USA; Department of Medicine, Arizona Respiratory Center, Tucson, USA; The Division of Vascular Surgery, University of Arizona, Tucson, USA; Division of Pulmonary, Allergy, Critical Care &amp; Sleep Medicine, University of Arizona College of Medicine Tucson, Tucson, USA; Division of Pulmonary, Allergy, Critical Care &amp; Sleep Medicine, University of Arizona College of Medicine Tucson, Tucson, USA; Division of Pulmonary, Allergy, Critical Care &amp; Sleep Medicine, University of Arizona College of Medicine Tucson, Tucson, USA; Division of Pulmonary, Allergy, Critical Care &amp; Sleep Medicine, University of Arizona College of Medicine Tucson, Tucson, USA; BIO5 Institute, University of Arizona, Tucson, USA; R. Ken Coit College of Pharmacy, Tucson, USA; Department of Immunobiology, University of Arizona College of Medicine-Tucson, Tucson, USA; R. Ken Coit College of Pharmacy, Tucson, USA; Department of Immunobiology, University of Arizona College of Medicine-Tucson, Tucson, USA; R. Ken Coit College of Pharmacy, Tucson, USA</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4315754302</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="D11" t="inlineStr">
         <is>
           <t>T-cell cellular stress and reticulocyte signatures, but not loss of naïve T lymphocytes, characterize severe COVID-19 in older adults</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>2023-01-12</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>GeroScience</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="G11" t="inlineStr">
         <is>
           <t>Springer International Publishing</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
+      <c r="H11" t="inlineStr">
         <is>
           <t>https://doi.org/10.1007/s11357-022-00724-y</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
+      <c r="I11" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="I11" t="inlineStr">
+      <c r="J11" t="inlineStr">
         <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J11" t="inlineStr">
+      <c r="K11" t="inlineStr">
         <is>
           <t>bronze</t>
         </is>
       </c>
-      <c r="K11" t="inlineStr">
+      <c r="L11" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L11" t="inlineStr">
+      <c r="M11" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M11" t="inlineStr">
+      <c r="N11" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N11" t="inlineStr">
+      <c r="O11" t="inlineStr">
         <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/36633825</t>
         </is>
       </c>
-      <c r="O11" t="inlineStr">
+      <c r="P11" t="inlineStr">
         <is>
           <t>https://doi.org/10.1007/s11357-022-00724-y</t>
         </is>
       </c>
-      <c r="P11" t="inlineStr">
+      <c r="Q11" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -1267,75 +1322,80 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
+          <t>Pulmonary &amp; Critical Care Medicine, University of Arizona-Tucson, Tucson, AZ, United States; Internal Medicine, University of Arizona-Tucson, Tucson, AZ, United States; Pulmonary &amp; Critical Care Medicine, University of Arizona-Tucson, Tucson, AZ, United States; Pulmonary &amp; Critical Care Medicine, University of Arizona-Tucson, Tucson, AZ, United States; Pulmonary and Critical Care Medicine, University of Arizona School of Medicine Pulmonary and Critical Care Medicine, Tucson, AZ, United States</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4367606384</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="D12" t="inlineStr">
         <is>
           <t>A Confusing Case of Bloody Cough: Not Everything is TB</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t>2023-05-01</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="G12" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr">
+      <c r="H12" t="inlineStr">
         <is>
           <t>https://doi.org/10.1164/ajrccm-conference.2023.207.1_meetingabstracts.a4137</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
+      <c r="I12" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="I12" t="inlineStr">
+      <c r="J12" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="J12" t="inlineStr">
+      <c r="K12" t="inlineStr">
         <is>
           <t>closed</t>
         </is>
       </c>
-      <c r="K12" t="inlineStr">
+      <c r="L12" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L12" t="inlineStr">
+      <c r="M12" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M12" t="inlineStr">
+      <c r="N12" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N12" t="inlineStr">
+      <c r="O12" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O12" t="inlineStr">
+      <c r="P12" t="inlineStr">
         <is>
           <t>https://doi.org/10.1164/ajrccm-conference.2023.207.1_meetingabstracts.a4137</t>
         </is>
       </c>
-      <c r="P12" t="inlineStr">
+      <c r="Q12" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -1349,75 +1409,80 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
+          <t>Banner Health - Tucson, AZ, Tucson, AZ, United States; Pulmonary, Allergy, Critical Care and Sleep, University of Arizona, Tucson, AZ, United States; Banner Health - Tucson, AZ, Tucson, AZ, United States; Banner Health - Tucson, AZ, Tucson, AZ, United States; Pulmonary and Critical Care Medicine, University of Arizona School of Medicine Pulmonary and Critical Care Medicine, Tucson, AZ, United States</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4367606455</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="D13" t="inlineStr">
         <is>
           <t>Trend of ROX Index Predicts Failure of High Flow Nasal Cannula</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="E13" t="inlineStr">
         <is>
           <t>2023-05-01</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="G13" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="G13" t="inlineStr">
+      <c r="H13" t="inlineStr">
         <is>
           <t>https://doi.org/10.1164/ajrccm-conference.2023.207.1_meetingabstracts.a1690</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
+      <c r="I13" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="I13" t="inlineStr">
+      <c r="J13" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="J13" t="inlineStr">
+      <c r="K13" t="inlineStr">
         <is>
           <t>closed</t>
         </is>
       </c>
-      <c r="K13" t="inlineStr">
+      <c r="L13" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L13" t="inlineStr">
+      <c r="M13" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M13" t="inlineStr">
+      <c r="N13" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N13" t="inlineStr">
+      <c r="O13" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O13" t="inlineStr">
+      <c r="P13" t="inlineStr">
         <is>
           <t>https://doi.org/10.1164/ajrccm-conference.2023.207.1_meetingabstracts.a1690</t>
         </is>
       </c>
-      <c r="P13" t="inlineStr">
+      <c r="Q13" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -1431,75 +1496,80 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
+          <t>Anelis V. Hanessian, MBA, BSN, RN, has been a Registered Nurse for 12 years and is the Associate Director of a 24 bed Medical ICU at Banner University Medical Center – Tucson. She graduated from Johns Hopkins University School of Nursing in 2010 and later began working as a new graduate nurse in the Medical ICU. She has been the Associate Director for the Medical ICU for 7 years, but also has experience leading the Cardiovascular ICU and Endoscopy department. She received her Master's in Business Administration from the University of Arizona in 2020 and has dedicated her time in those roles focusing on staff development as well as process and quality improvement.; Angela Kuhar, OTR/L, graduated with a Master’s degree in Occupational Therapy from Nova Southeastern University in 2016. She has experience working in an intensive critical acute care hospital setting with a focus on facilitating individuals with activities to help promote/restore daily life tasks. She currently resides in California and continues work in the healthcare industry.; Author Contributions: C.M.R., C.B., A.K., and M.J.F. conceived the study idea. M.J.F. and C.M.R. applied for and received institutional review board approval. A.V.H. and C.M.R. compiled the database. Statistical analysis was performed by C.M.R. and B.A.B. with review and expertise provided by C.B. C.M.R. and B.A.B. drafted the manuscript.; Bryan A. Borg, MD, received his undergraduate and medical degrees from the University of Arizona and completed internal medicine residency and pulmonary/critical care fellowship training. He specializes in Pulmonary and Critical Care Medicine and currently practices at the University of Colorado Hospital and the Rocky Mountain Regional VA Medical Center, both in Aurora, Colorado. He is interested in decreasing the morbidity of ICU stays, including deconditioning, lightening of sedation and earlier weaning from mechanical ventilation, and in chronic care of respiratory effects of neuromuscular diseases including ALS.; C.B.'s research is supported by NIH K08 HL141623.; C.M.R. and B.A.B. contributed equally to this article.; Carleigh M. Rittel, PT, DPT, received her undergraduate degree from the Georgia Institute of Technology prior to receiving her doctorate of physical therapy from Elon University. She is a full time practicing physical therapist who specializes in treating patients in the ICU. In addition, she has participated in numerous research projects and studies that have been presented at national and international conferences and subsequently published. She's assisted in teaching various classes including at the university level. She's presented and led teams to create certified CEU courses for PTs and PTAs focusing on treating patients with covid-19 and on treating older adults. Apart from work she enjoys running and spending time outside.; The authors have disclosed that they have no significant relationship with, or financial interest in, any commercial companies pertaining to this article.; Anelis V. Hanessian, MBA, BSN, RN, has been a Registered Nurse for 12 years and is the Associate Director of a 24 bed Medical ICU at Banner University Medical Center – Tucson. She graduated from Johns Hopkins University School of Nursing in 2010 and later began working as a new graduate nurse in the Medical ICU. She has been the Associate Director for the Medical ICU for 7 years, but also has experience leading the Cardiovascular ICU and Endoscopy department. She received her Master's in Business Administration from the University of Arizona in 2020 and has dedicated her time in those roles focusing on staff development as well as process and quality improvement.; Angela Kuhar, OTR/L, graduated with a Master’s degree in Occupational Therapy from Nova Southeastern University in 2016. She has experience working in an intensive critical acute care hospital setting with a focus on facilitating individuals with activities to help promote/restore daily life tasks. She currently resides in California and continues work in the healthcare industry.; Author Contributions: C.M.R., C.B., A.K., and M.J.F. conceived the study idea. M.J.F. and C.M.R. applied for and received institutional review board approval. A.V.H. and C.M.R. compiled the database. Statistical analysis was performed by C.M.R. and B.A.B. with review and expertise provided by C.B. C.M.R. and B.A.B. drafted the manuscript.; Bryan A. Borg, MD, received his undergraduate and medical degrees from the University of Arizona and completed internal medicine residency and pulmonary/critical care fellowship training. He specializes in Pulmonary and Critical Care Medicine and currently practices at the University of Colorado Hospital and the Rocky Mountain Regional VA Medical Center, both in Aurora, Colorado. He is interested in decreasing the morbidity of ICU stays, including deconditioning, lightening of sedation and earlier weaning from mechanical ventilation, and in chronic care of respiratory effects of neuromuscular diseases including ALS.; C.B.'s research is supported by NIH K08 HL141623.; C.M.R. and B.A.B. contributed equally to this article.; Carleigh M. Rittel, PT, DPT, received her undergraduate degree from the Georgia Institute of Technology prior to receiving her doctorate of physical therapy from Elon University. She is a full time practicing physical therapist who specializes in treating patients in the ICU. In addition, she has participated in numerous research projects and studies that have been presented at national and international conferences and subsequently published. She's assisted in teaching various classes including at the university level. She's presented and led teams to create certified CEU courses for PTs and PTAs focusing on treating patients with covid-19 and on treating older adults. Apart from work she enjoys running and spending time outside.; The authors have disclosed that they have no significant relationship with, or financial interest in, any commercial companies pertaining to this article.; Anelis V. Hanessian, MBA, BSN, RN, has been a Registered Nurse for 12 years and is the Associate Director of a 24 bed Medical ICU at Banner University Medical Center – Tucson. She graduated from Johns Hopkins University School of Nursing in 2010 and later began working as a new graduate nurse in the Medical ICU. She has been the Associate Director for the Medical ICU for 7 years, but also has experience leading the Cardiovascular ICU and Endoscopy department. She received her Master's in Business Administration from the University of Arizona in 2020 and has dedicated her time in those roles focusing on staff development as well as process and quality improvement.; Angela Kuhar, OTR/L, graduated with a Master’s degree in Occupational Therapy from Nova Southeastern University in 2016. She has experience working in an intensive critical acute care hospital setting with a focus on facilitating individuals with activities to help promote/restore daily life tasks. She currently resides in California and continues work in the healthcare industry.; Author Contributions: C.M.R., C.B., A.K., and M.J.F. conceived the study idea. M.J.F. and C.M.R. applied for and received institutional review board approval. A.V.H. and C.M.R. compiled the database. Statistical analysis was performed by C.M.R. and B.A.B. with review and expertise provided by C.B. C.M.R. and B.A.B. drafted the manuscript.; Bryan A. Borg, MD, received his undergraduate and medical degrees from the University of Arizona and completed internal medicine residency and pulmonary/critical care fellowship training. He specializes in Pulmonary and Critical Care Medicine and currently practices at the University of Colorado Hospital and the Rocky Mountain Regional VA Medical Center, both in Aurora, Colorado. He is interested in decreasing the morbidity of ICU stays, including deconditioning, lightening of sedation and earlier weaning from mechanical ventilation, and in chronic care of respiratory effects of neuromuscular diseases including ALS.; C.B.'s research is supported by NIH K08 HL141623.; C.M.R. and B.A.B. contributed equally to this article.; Carleigh M. Rittel, PT, DPT, received her undergraduate degree from the Georgia Institute of Technology prior to receiving her doctorate of physical therapy from Elon University. She is a full time practicing physical therapist who specializes in treating patients in the ICU. In addition, she has participated in numerous research projects and studies that have been presented at national and international conferences and subsequently published. She's assisted in teaching various classes including at the university level. She's presented and led teams to create certified CEU courses for PTs and PTAs focusing on treating patients with covid-19 and on treating older adults. Apart from work she enjoys running and spending time outside.; The authors have disclosed that they have no significant relationship with, or financial interest in, any commercial companies pertaining to this article.; Anelis V. Hanessian, MBA, BSN, RN, has been a Registered Nurse for 12 years and is the Associate Director of a 24 bed Medical ICU at Banner University Medical Center – Tucson. She graduated from Johns Hopkins University School of Nursing in 2010 and later began working as a new graduate nurse in the Medical ICU. She has been the Associate Director for the Medical ICU for 7 years, but also has experience leading the Cardiovascular ICU and Endoscopy department. She received her Master's in Business Administration from the University of Arizona in 2020 and has dedicated her time in those roles focusing on staff development as well as process and quality improvement.; Angela Kuhar, OTR/L, graduated with a Master’s degree in Occupational Therapy from Nova Southeastern University in 2016. She has experience working in an intensive critical acute care hospital setting with a focus on facilitating individuals with activities to help promote/restore daily life tasks. She currently resides in California and continues work in the healthcare industry.; Author Contributions: C.M.R., C.B., A.K., and M.J.F. conceived the study idea. M.J.F. and C.M.R. applied for and received institutional review board approval. A.V.H. and C.M.R. compiled the database. Statistical analysis was performed by C.M.R. and B.A.B. with review and expertise provided by C.B. C.M.R. and B.A.B. drafted the manuscript.; Bryan A. Borg, MD, received his undergraduate and medical degrees from the University of Arizona and completed internal medicine residency and pulmonary/critical care fellowship training. He specializes in Pulmonary and Critical Care Medicine and currently practices at the University of Colorado Hospital and the Rocky Mountain Regional VA Medical Center, both in Aurora, Colorado. He is interested in decreasing the morbidity of ICU stays, including deconditioning, lightening of sedation and earlier weaning from mechanical ventilation, and in chronic care of respiratory effects of neuromuscular diseases including ALS.; C.B.'s research is supported by NIH K08 HL141623.; C.M.R. and B.A.B. contributed equally to this article.; Carleigh M. Rittel, PT, DPT, received her undergraduate degree from the Georgia Institute of Technology prior to receiving her doctorate of physical therapy from Elon University. She is a full time practicing physical therapist who specializes in treating patients in the ICU. In addition, she has participated in numerous research projects and studies that have been presented at national and international conferences and subsequently published. She's assisted in teaching various classes including at the university level. She's presented and led teams to create certified CEU courses for PTs and PTAs focusing on treating patients with covid-19 and on treating older adults. Apart from work she enjoys running and spending time outside.; The authors have disclosed that they have no significant relationship with, or financial interest in, any commercial companies pertaining to this article.; Anelis V. Hanessian, MBA, BSN, RN, has been a Registered Nurse for 12 years and is the Associate Director of a 24 bed Medical ICU at Banner University Medical Center – Tucson. She graduated from Johns Hopkins University School of Nursing in 2010 and later began working as a new graduate nurse in the Medical ICU. She has been the Associate Director for the Medical ICU for 7 years, but also has experience leading the Cardiovascular ICU and Endoscopy department. She received her Master's in Business Administration from the University of Arizona in 2020 and has dedicated her time in those roles focusing on staff development as well as process and quality improvement.; Angela Kuhar, OTR/L, graduated with a Master’s degree in Occupational Therapy from Nova Southeastern University in 2016. She has experience working in an intensive critical acute care hospital setting with a focus on facilitating individuals with activities to help promote/restore daily life tasks. She currently resides in California and continues work in the healthcare industry.; Author Contributions: C.M.R., C.B., A.K., and M.J.F. conceived the study idea. M.J.F. and C.M.R. applied for and received institutional review board approval. A.V.H. and C.M.R. compiled the database. Statistical analysis was performed by C.M.R. and B.A.B. with review and expertise provided by C.B. C.M.R. and B.A.B. drafted the manuscript.; Bryan A. Borg, MD, received his undergraduate and medical degrees from the University of Arizona and completed internal medicine residency and pulmonary/critical care fellowship training. He specializes in Pulmonary and Critical Care Medicine and currently practices at the University of Colorado Hospital and the Rocky Mountain Regional VA Medical Center, both in Aurora, Colorado. He is interested in decreasing the morbidity of ICU stays, including deconditioning, lightening of sedation and earlier weaning from mechanical ventilation, and in chronic care of respiratory effects of neuromuscular diseases including ALS.; C.B.'s research is supported by NIH K08 HL141623.; C.M.R. and B.A.B. contributed equally to this article.; Carleigh M. Rittel, PT, DPT, received her undergraduate degree from the Georgia Institute of Technology prior to receiving her doctorate of physical therapy from Elon University. She is a full time practicing physical therapist who specializes in treating patients in the ICU. In addition, she has participated in numerous research projects and studies that have been presented at national and international conferences and subsequently published. She's assisted in teaching various classes including at the university level. She's presented and led teams to create certified CEU courses for PTs and PTAs focusing on treating patients with covid-19 and on treating older adults. Apart from work she enjoys running and spending time outside.; The authors have disclosed that they have no significant relationship with, or financial interest in, any commercial companies pertaining to this article.; Anelis V. Hanessian, MBA, BSN, RN, has been a Registered Nurse for 12 years and is the Associate Director of a 24 bed Medical ICU at Banner University Medical Center – Tucson. She graduated from Johns Hopkins University School of Nursing in 2010 and later began working as a new graduate nurse in the Medical ICU. She has been the Associate Director for the Medical ICU for 7 years, but also has experience leading the Cardiovascular ICU and Endoscopy department. She received her Master's in Business Administration from the University of Arizona in 2020 and has dedicated her time in those roles focusing on staff development as well as process and quality improvement.; Angela Kuhar, OTR/L, graduated with a Master’s degree in Occupational Therapy from Nova Southeastern University in 2016. She has experience working in an intensive critical acute care hospital setting with a focus on facilitating individuals with activities to help promote/restore daily life tasks. She currently resides in California and continues work in the healthcare industry.; Author Contributions: C.M.R., C.B., A.K., and M.J.F. conceived the study idea. M.J.F. and C.M.R. applied for and received institutional review board approval. A.V.H. and C.M.R. compiled the database. Statistical analysis was performed by C.M.R. and B.A.B. with review and expertise provided by C.B. C.M.R. and B.A.B. drafted the manuscript.; Bryan A. Borg, MD, received his undergraduate and medical degrees from the University of Arizona and completed internal medicine residency and pulmonary/critical care fellowship training. He specializes in Pulmonary and Critical Care Medicine and currently practices at the University of Colorado Hospital and the Rocky Mountain Regional VA Medical Center, both in Aurora, Colorado. He is interested in decreasing the morbidity of ICU stays, including deconditioning, lightening of sedation and earlier weaning from mechanical ventilation, and in chronic care of respiratory effects of neuromuscular diseases including ALS.; C.B.'s research is supported by NIH K08 HL141623.; C.M.R. and B.A.B. contributed equally to this article.; Carleigh M. Rittel, PT, DPT, received her undergraduate degree from the Georgia Institute of Technology prior to receiving her doctorate of physical therapy from Elon University. She is a full time practicing physical therapist who specializes in treating patients in the ICU. In addition, she has participated in numerous research projects and studies that have been presented at national and international conferences and subsequently published. She's assisted in teaching various classes including at the university level. She's presented and led teams to create certified CEU courses for PTs and PTAs focusing on treating patients with covid-19 and on treating older adults. Apart from work she enjoys running and spending time outside.; The authors have disclosed that they have no significant relationship with, or financial interest in, any commercial companies pertaining to this article.</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4377565590</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="D14" t="inlineStr">
         <is>
           <t>Longitudinal Assessment of Mobility and Self-care Among Critically Ill Older Adults. An Age-Friendly Health Systems Initiative Quality Improvement Study.</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="E14" t="inlineStr">
         <is>
           <t>2023-07-01</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="F14" t="inlineStr">
         <is>
           <t>Dimensions of Critical Care Nursing</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="G14" t="inlineStr">
         <is>
           <t>Lippincott Williams &amp; Wilkins</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr">
+      <c r="H14" t="inlineStr">
         <is>
           <t>https://doi.org/10.1097/dcc.0000000000000588</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
+      <c r="I14" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="I14" t="inlineStr">
+      <c r="J14" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="J14" t="inlineStr">
+      <c r="K14" t="inlineStr">
         <is>
           <t>closed</t>
         </is>
       </c>
-      <c r="K14" t="inlineStr">
+      <c r="L14" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L14" t="inlineStr">
+      <c r="M14" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M14" t="inlineStr">
+      <c r="N14" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N14" t="inlineStr">
+      <c r="O14" t="inlineStr">
         <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/37219478</t>
         </is>
       </c>
-      <c r="O14" t="inlineStr">
+      <c r="P14" t="inlineStr">
         <is>
           <t>https://doi.org/10.1097/dcc.0000000000000588</t>
         </is>
       </c>
-      <c r="P14" t="inlineStr">
+      <c r="Q14" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -1508,80 +1578,85 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Leora I. Horwitz, Tanayott Thaweethai, Shari B. Brosnahan, Mine S. Cicek, Megan L. Fitzgerald, Jason D Goldman, Rachel Hess, Sally Hodder, Vanessa L. Jacoby, Michael R. Jordan, Jerry A. Krishnan, Adeyinka O. Laiyemo, Torri D. Metz, Lauren M. Nichols, Rachel E. Patzer, A. S. C. Sekar, Nora G. Singer, Lauren E. Stiles, Barbara S. Taylor, Shifa Ahmed, Heather Algren, Khamal Anglin, Lisa Aponte‐Soto, Hassan Ashktorab, Ingrid V. Bassett, Brahmchetna Bedi, Nahid Bhadelia, Christian Bime, Marie-Abèle Bind, Lora Black, Andra L. Blomkalns, Hassan Brim, Mario Castro, James Chan, Alexander Charney, Benjamin Chen, Lei Chen, Peter Chen, David Chestek, Lori B. Chibnik, Dominic C. Chow, Helen Y. Chu, Rebecca G. Clifton, Shelby Collins, Maged M. Costantine, Sushma K. Cribbs, Steven G. Deeks, John D. Dickinson, Sarah E. Donohue, Matthew S Durstenfeld, Ivette F. Emery, Kristine M. Erlandson, Julio C. Facelli, Rachael Farah-Abraham, Aloke V. Finn, Michael B. Fischer, Valerie J. Flaherman, Judes Fleurimont, Vivian Fonseca, Emily J. Gallagher, Jennifer C. Gander, Maria Laura Gennaro, Kelly S. Gibson, Minjoung Go, Steven N. Goodman, Joey P. Granger, Frank L. Greenway, James Lee Hafner, Jenny E. Han, Michelle Harkins, Kristine S.P. Hauser, James R. Heath, Carla R. Hernandez, On Ho, Matthew Hoffman, Susan E. Hoover, Carol R. Horowitz, Hui-Chu Hsu, Priscilla Y. Hsue, Brenna L. Hughes, Prasanna Jagannathan, Judith A. James, J. John, Sarah E. Jolley, Suzanne E. Judd, Joy J. Juskowich, Diane G. Kanjilal, Elizabeth W. Karlson, Stuart D. Katz, John D. Kelly, Sarah Kelly, Arthur Y. Kim, John P. Kirwan, Kenneth S. Knox, Andre Kumar, Michelle F. Lamendola-Essel, Margaret Lanca, Joyce K. Lee-lannotti, R. Craig Lefebvre, Bruce D. Levy</t>
+          <t>Heather Lynn, Xiaoguang Sun, Nancy G. Casanova, Christian Bime, Vivian Reyes Hernon, Clayton Lanham, Radu C. Oita, N. Ramos, Belinda Sun, Dawn K. Coletta, Sara M. Camp, Jason H. Karnes, Nathan A. Ellis, Joe G.N. Garcia</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4378610411</t>
+          <t>College of Medicine, University of Arizona Health Sciences, Tucson, AZ, USA; College of Medicine, University of Arizona Health Sciences, Tucson, AZ, USA; College of Medicine, University of Arizona Health Sciences, Tucson, AZ, USA; College of Medicine, University of Arizona Health Sciences, Tucson, AZ, USA; College of Medicine, University of Arizona Health Sciences, Tucson, AZ, USA; College of Medicine, University of Arizona Health Sciences, Tucson, AZ, USA; College of Medicine, University of Arizona Health Sciences, Tucson, AZ, USA; College of Medicine, University of Arizona Health Sciences, Tucson, AZ, USA; College of Medicine, University of Arizona Health Sciences, Tucson, AZ, USA; College of Medicine, University of Arizona Health Sciences, Tucson, AZ, USA; College of Medicine, University of Arizona Health Sciences, Tucson, AZ, USA; College of Pharmacy, University of Arizona Health Sciences, Tucson, AZ, USA; College of Medicine, University of Arizona Health Sciences, Tucson, AZ, USA; Dr. Herbert A. Wertheim Professor of Inflammation Science, Director, Center for Inflammation Science and Systems Medicine, University of Florida Scripps Research Institute, Jupiter, FL 33458, USA</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Researching COVID to enhance recovery (RECOVER) adult study protocol: Rationale, objectives, and design</t>
+          <t>https://openalex.org/W4384924313</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>2023-05-28</t>
+          <t>Linkage of NAMPT promoter variants to eNAMPT secretion, plasma eNAMPT levels, and ARDS severity</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>medRxiv (Cold Spring Harbor Laboratory)</t>
+          <t>2023-01-01</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Cold Spring Harbor Laboratory</t>
+          <t>Therapeutic Advances in Respiratory Disease</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1101/2023.05.26.23290475</t>
+          <t>SAGE Publishing</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>cc-by</t>
+          <t>https://doi.org/10.1177/17534666231181262</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>submittedVersion</t>
+          <t>cc-by-nc</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>green</t>
+          <t>publishedVersion</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
+          <t>gold</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L15" t="inlineStr">
+      <c r="M15" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M15" t="inlineStr">
+      <c r="N15" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N15" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1101/2023.05.26.23290475</t>
+          <t>https://pubmed.ncbi.nlm.nih.gov/37477094</t>
         </is>
       </c>
       <c r="P15" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1177/17534666231181262</t>
+        </is>
+      </c>
+      <c r="Q15" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -1590,80 +1665,85 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Heather Lynn, Xiaoguang Sun, Nancy G. Casanova, Christian Bime, Vivian Reyes Hernon, Clayton Lanham, Radu C. Oita, N. Ramos, Belinda Sun, Dawn K. Coletta, Sara M. Camp, Jason H. Karnes, Nathan A. Ellis, Joe G.N. Garcia</t>
+          <t>Christian Bime, Ying Wang, Gordon Carr, Dennis Swearingen, Sherri Kou, Pam Thompson, Vinita Kusupati, Sairam Parthasarathy</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4384924313</t>
+          <t>Division of Pulmonary, Allergy, Critical Care &amp; Sleep Medicine, Department of Medicine, University of Arizona, Tucson, AZ, United States; Department of Informatics Technology, Banner Health, Phoenix, AZ, United States; Division of Pulmonary, Allergy, Critical Care &amp; Sleep Medicine, Department of Medicine, University of Arizona, Tucson, AZ, United States; Department of Biomedical Informatics, University of Arizona College of Medicine, Phoenix, AZ, United States; Department of Medical Informatics, Banner Health, Phoenix, AZ, United States; Department of Informatics Technology, Banner Health, Phoenix, AZ, United States; Department of Academic and Facilities Research, Banner Health, Phoenix, AZ, United States; Division of General Internal Medicine, Department of Medicine, University of Arizona, Tucson, AZ, United States; Division of Pulmonary, Allergy, Critical Care &amp; Sleep Medicine, Department of Medicine, University of Arizona, Tucson, AZ, United States</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Linkage of NAMPT promoter variants to eNAMPT secretion, plasma eNAMPT levels, and ARDS severity</t>
+          <t>https://openalex.org/W4385855925</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>2023-01-01</t>
+          <t>Disparities in outcomes of COVID-19 hospitalizations in native American individuals</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Therapeutic Advances in Respiratory Disease</t>
+          <t>2023-08-15</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>SAGE Publishing</t>
+          <t>Frontiers in Public Health</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1177/17534666231181262</t>
+          <t>Frontiers Media</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>cc-by-nc</t>
+          <t>https://doi.org/10.3389/fpubh.2023.1220582</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
+          <t>cc-by</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J16" t="inlineStr">
+      <c r="K16" t="inlineStr">
         <is>
           <t>gold</t>
         </is>
       </c>
-      <c r="K16" t="inlineStr">
+      <c r="L16" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L16" t="inlineStr">
+      <c r="M16" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M16" t="inlineStr">
+      <c r="N16" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N16" t="inlineStr">
-        <is>
-          <t>https://pubmed.ncbi.nlm.nih.gov/37477094</t>
-        </is>
-      </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1177/17534666231181262</t>
+          <t>https://pubmed.ncbi.nlm.nih.gov/37649785</t>
         </is>
       </c>
       <c r="P16" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.3389/fpubh.2023.1220582</t>
+        </is>
+      </c>
+      <c r="Q16" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -1672,80 +1752,85 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Christian Bime, Ying Wang, Gordon Carr, Dennis Swearingen, Sherri Kou, Pam Thompson, Vinita Kusupati, Sairam Parthasarathy</t>
+          <t>Jacqueline C. Stocking, Sandra L. Taylor, Stanley Fan, Theodora Wingert, Christiana Drake, Janet Aldrich, Michael Ong, Alpesh Amin, Rebecca A. Marmor, Laura N Godat, Maxime Cannesson, Michael A. Gropper, Garth H. Utter, CHRISTIAN E SANDROCK, Christian Bime, Jarrod Mosier, Vignesh Subbian, JASON Y ADAMS, Nicholas J. Kenyon, TIMOTHY E ALBERTSON, Joe G.N. Garcia, Ivo Abraham</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4385855925</t>
+          <t xml:space="preserve">; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; </t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Disparities in outcomes of COVID-19 hospitalizations in native American individuals</t>
+          <t>https://openalex.org/W4387268415</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>2023-08-15</t>
+          <t>A LASSO-DERIVED PREDICTIVE MODEL FOR POSTOPERATIVE RESPIRATORY FAILURE IN A HETEROGENEOUS ADULT ELECTIVE SURGERY PATIENT POPULATION</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Frontiers in Public Health</t>
+          <t>2023-10-01</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Frontiers Media</t>
+          <t>Chest</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>https://doi.org/10.3389/fpubh.2023.1220582</t>
+          <t>Elsevier BV</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>cc-by</t>
+          <t>https://doi.org/10.1016/j.chest.2023.07.1061</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>publishedVersion</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>gold</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
         <is>
+          <t>closed</t>
+        </is>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L17" t="inlineStr">
+      <c r="M17" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M17" t="inlineStr">
+      <c r="N17" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N17" t="inlineStr">
-        <is>
-          <t>https://pubmed.ncbi.nlm.nih.gov/37649785</t>
-        </is>
-      </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>https://doi.org/10.3389/fpubh.2023.1220582</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="P17" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1016/j.chest.2023.07.1061</t>
+        </is>
+      </c>
+      <c r="Q17" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -1754,80 +1839,85 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Jacqueline C. Stocking, Sandra L. Taylor, Stanley Fan, Theodora Wingert, Christiana Drake, Janet Aldrich, Michael Ong, Alpesh Amin, Rebecca A. Marmor, Laura N Godat, Maxime Cannesson, Michael A. Gropper, Garth H. Utter, CHRISTIAN E SANDROCK, Christian Bime, Jarrod Mosier, Vignesh Subbian, JASON Y ADAMS, Nicholas J. Kenyon, TIMOTHY E ALBERTSON, Joe G.N. Garcia, Ivo Abraham</t>
+          <t>Jacqueline C. Stocking, Sandra L. Taylor, Shaosheng Fan, Theodora Wingert, Christiana Drake, Janet Aldrich, Michael Ong, Alpesh Amin, Rebecca A. Marmor, Laura N Godat, Maxime Cannesson, Michael A. Gropper, Garth H. Utter, Christian Sandrock, Christian Bime, Jarrod Mosier, Vignesh Subbian, Jason Adams, Nicholas J. Kenyon, Timothy E Albertson, Joe G.N. Garcia, Ivo Abraham</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4387268415</t>
+          <t xml:space="preserve">; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; </t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>A LASSO-DERIVED PREDICTIVE MODEL FOR POSTOPERATIVE RESPIRATORY FAILURE IN A HETEROGENEOUS ADULT ELECTIVE SURGERY PATIENT POPULATION</t>
+          <t>https://openalex.org/W4387806949</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>2023-10-01</t>
+          <t>A Least Absolute Shrinkage and Selection Operator-Derived Predictive Model for Postoperative Respiratory Failure in a Heterogeneous Adult Elective Surgery Patient Population</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Chest</t>
+          <t>2023-12-01</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
+          <t>CHEST Critical Care</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
           <t>Elsevier BV</t>
         </is>
       </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1016/j.chest.2023.07.1061</t>
-        </is>
-      </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>https://doi.org/10.1016/j.chstcc.2023.100025</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>cc-by</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>closed</t>
+          <t>publishedVersion</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
         <is>
+          <t>hybrid</t>
+        </is>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L18" t="inlineStr">
+      <c r="M18" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M18" t="inlineStr">
+      <c r="N18" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N18" t="inlineStr">
+      <c r="O18" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O18" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1016/j.chest.2023.07.1061</t>
-        </is>
-      </c>
       <c r="P18" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1016/j.chstcc.2023.100025</t>
+        </is>
+      </c>
+      <c r="Q18" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -1836,80 +1926,85 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Jacqueline C. Stocking, Sandra L. Taylor, Shaosheng Fan, Theodora Wingert, Christiana Drake, Janet Aldrich, Michael Ong, Alpesh Amin, Rebecca A. Marmor, Laura N Godat, Maxime Cannesson, Michael A. Gropper, Garth H. Utter, Christian Sandrock, Christian Bime, Jarrod Mosier, Vignesh Subbian, Jason Adams, Nicholas J. Kenyon, Timothy E Albertson, Joe G.N. Garcia, Ivo Abraham</t>
+          <t>Leora I. Horwitz, Tanayott Thaweethai, Shari B. Brosnahan, Mine S. Cicek, Megan L. Fitzgerald, Jason D Goldman, Rachel Hess, Sally Hodder, Vanessa L. Jacoby, Michael R. Jordan, Jerry A. Krishnan, Adeyinka O. Laiyemo, Torri D. Metz, Lauren M. Nichols, Rachel E. Patzer, A. S. C. Sekar, Nora G. Singer, Lauren E. Stiles, Barbara S. Taylor, Shifa Ahmed, Heather Algren, Khamal Anglin, Lisa Aponte‐Soto, Hassan Ashktorab, Ingrid V. Bassett, Brahmchetna Bedi, Nahid Bhadelia, Christian Bime, Marie-Abèle Bind, Lora Black, Andra L. Blomkalns, Hassan Brim, Mario Castro, James Chan, Alexander Charney, Benjamin Chen, Lei Chen, Peter Chen, David Chestek, Lori B. Chibnik, Dominic C. Chow, Helen Y. Chu, Rebecca G. Clifton, Shelby Collins, Maged M. Costantine, Sushma K. Cribbs, Steven G. Deeks, John D. Dickinson, Sarah E. Donohue, Matthew S Durstenfeld, Ivette F. Emery, Kristine M. Erlandson, Julio C. Facelli, Rachael Farah-Abraham, Aloke V. Finn, Michael B. Fischer, Valerie J. Flaherman, Judes Fleurimont, Vivian Fonseca, Emily J. Gallagher, Jennifer C. Gander, Maria Laura Gennaro, Kelly S. Gibson, Minjoung Go, Steven N. Goodman, Joey P. Granger, Frank L. Greenway, James Lee Hafner, Jenny E. Han, Michelle Harkins, Kristine S.P. Hauser, James R. Heath, Carla R. Hernandez, On Ho, Matthew Hoffman, Susan E. Hoover, Carol R. Horowitz, Hui-Chu Hsu, Priscilla Y. Hsue, Brenna L. Hughes, Prasanna Jagannathan, Judith A. James, J. John, Sarah E. Jolley, Suzanne E. Judd, Joy J. Juskowich, Diane G. Kanjilal, Elizabeth W. Karlson, Stuart D. Katz, John D. Kelly, Sarah Kelly, Arthur Y. Kim, John P. Kirwan, Kenneth S. Knox, Andre Kumar, Michelle F. Lamendola-Essel, Margaret Lanca, Joyce K. Lee-lannotti, R. Craig Lefebvre, Bruce D. Levy</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4387806949</t>
+          <t>Department of Population Health, NYU Grossman School of Medicine, New York, NY, USA; Department of Biostatistics, Massachusetts General Hospital, Boston, MA, USA; Division of Pulmonary Critical Care and Sleep Medicine, NYU Langone Health, New York, NY, USA; Department of Laboratory Medicine and Pathology, Mayo Clinic, Rochester, MN, USA; Patient Led Research Collaboration on COVID-19, Washington, DC, USA; Division of Infectious Diseases, Providence Swedish Medical Center, Seattle, WA, USA; Department of Population Health Sciences and Internal Medicine, University of Utah School of Medicine, Salt Lake City, UT, USA; Department of Medicine, West Virginia University, Morgantown, WV, USA; Department of Obstetrics, Gynecology, and Reproductive Sciences, University of California, San Francisco, San Francisco, CA, USA; Division of Geographic Medicine and Infectious Diseases, Tufts Medical Center, Medford, MA, USA; Department of Medicine, University of Illinois Chicago, Chicago, IL, USA; Department of Medicine, Howard University, Washington DC, USA; Department of Obstetrics and Gynecology, University of Utah Health, Salt Lake City, UT, USA; Body Politic COVID-19 Support Group, Boston, MA, USA; Department of Medicine and Surgery, Health Services Research Center, Emory University School of Medicine, Atlanta, GA, USA; Patient Led Research Collaboration on COVID-19, Washington, DC, USA; Department of Medicine and Rheumatology, The MetroHealth Medical Center, Cleveland, OH, USA; Department of Neurology, Stony Brook University Renaissance School of Medicine, Stony Brook, NY, USA; Department of Medicine, Division of Infectious Diseases and Infectious Diseases, Long School of Medicine, University of Texas Health Science Center San Antonio, San Antonio, TX, USA; Department of Biostatistics, Massachusetts General Hospital, Boston, MA, USA; Swedish Center for Research and Innovation, Providence Swedish Medical Center, Seattle, WA, USA; Department of Epidemiology and Biostatistics, University of California at San Francisco Institute of Global Health Sciences, San Francisco, San Francisco, CA, USA; College of Science and Health, Department of Health Sciences, DePaul University, Chicago, IL, USA; Department of Medicine, Howard University, Washington DC, USA; Medical Practice Evaluation Center, Department of Medicine, Massachusetts General Hospital, Harvard Medical School, Boston, MA, USA; Department of Medicine, Emory University, Atlanta, GA, USA; Center for Emerging Infectious Diseases Policy and Research, Boston University School of Medicine, Boston, MA, USA; Department of Medicine, University of Arizona, Tucson, AZ, USA; Department of Biostatistics, Massachusetts General Hospital, Boston, MA, USA; Department of Clinical Research, Sanford Research, Sioux Falls, SD, USA; Department of Emergency Medicine, Stanford University, Stanford, CA, USA; Department of Pathology, Howard University, Washington, DC, USA; Division of Pulmonary and Critical Care, University of Kansas Medical Center, Kansas City, KS, USA; Department of Biostatistics, Massachusetts General Hospital, Boston, MA, USA; Charles Bronfman Institute for Personalized Medicine, Icahn School of Medicine at Mount Sinai, New York, NY, USA; Division of Infectious Disease, Department of Medicine, Icahn School of Medicine at Mount Sinai, New York, NY, USA; Department of Medicine, Brigham and Women's Hospital, Boston, MA, USA; Department of Medicine, Cedars-Sinai Medical Center, Los Angeles, CA, USA; Department of Emergency Medicine, University of Illinois Chicago, Chicago, IL, USA; Department of Neurology, Massachusetts General Hospital, Boston, MA, USA; Department of Medicine, University of Hawaii at Manoa John A. Burns School of Medicine, Honolulu, HI, USA; Department of Allergy &amp; Infectious Diseases, University of Washington, Seattle, WA, USA; Department of Biostatistics, George Washington University, Washington DC, USA; Department of Medicine, Emory University, Atlanta, GA, USA; Department of Obstetrics and Gynecology, The Ohio State University Hospital, Columbus, OH, USA; Department of Medicine, Emory University, Atlanta, GA, USA; Department of Medicine, University of California, San Francisco, San Francisco, CA, USA; Department of Internal Medicine, University of Nebraska Medical Center, Omaha, NE, USA; Department of Research Services, University of Illinois College of Medicine, Peoria, IL, USA; Department of Medicine, Division of Cardiology at Zuckerberg San Francisco General, University of California San Francisco, San Francisco, CA, USA; MaineHealth Institute for Research, MaineHealth, Scarborough, ME, USA; Department of Medicine, University of Colorado Anschutz Medical Campus, Aurora, CO, USA; Department of Biomedical Informatics and Clinical and Translational Science Institute, University of Utah, Salt Lake City, UT, USA; Department of Medicine, Division of Infectious Diseases, Emory University School of Medicine, Atlanta, GA, USA; Department of Pathology, CVPath Institute, Gaithersburg, MD, USA; Department of Medicine, Division of Infectious Diseases and Infectious Diseases, Long School of Medicine, University of Texas Health Science Center San Antonio, San Antonio, TX, USA; Department of Pediatrics, University of California, San Francisco, San Francisco, CA, USA; Mile Square Health Center, University of Illinois Chicago, University of Illinois Chicago, IL, USA; Department of Medicine, Tulane University School of Medicine, New Orleans, LA, USA; Department of Endocrinology, Diabetes and Bone Disease, Icahn School of Medicine at Mount Sinai, New York, NY, USA; Center for Research and Evaluation, Kaiser Permanente of Georgia, Atlanta, GA, USA; Public Health Research Institute and Department of Medicine, Rutgers New Jersey Medical School, Newark, NJ, USA; Department of Obstetrics and Gynecology, MetroHealth System, Cleveland, OH, USA; Department of Medicine, Stanford University, Stanford, CA, USA; Department of Epidemiology and Population Health, Stanford University School of Medicine, Stanford, CA, USA; Department of Physiology &amp; Biophysics, University of Mississippi Medical Center, Jackson, MS, USA; Clinical Trials, Pennington Biomedical Research Center, Baton Rouge, LA, USA; Department of Emergency Medicine, OSF Saint Francis Medical Center, Peoria, IL, USA; Department of Pulmonary and Critical Care, Emory University School of Medicine, Atlanta, GA, USA; Department of Internal Medicine University of New Mexico, Health Science Center, Albuquerque, NM, USA; Clinical Research Center, Beth Israel Deaconess Medical Center, Boston, MA, USA; Department of Bioengineering, Institute for Systems Biology, Seattle, WA, USA; Clinical Research Center, University Hospitals Cleveland Medical Center, Cleveland, OH, USA; Seattle Children's Therapeutics, Seattle, WA, USA; Department of Obstetrics and Gynecology, Christiana Care Health Services, Newark, DE, USA; Department of Clinical Research, Sanford Research, Sioux Falls, SD, USA; Institute for Health Equity Research, Icahn School of Medicine at Mount Sinai, New York, NY, USA; Department of Internal Medicine, University of Arizona, Phoenix, AZ, USA; Department of Medicine, University of California, San Francisco, San Francisco, CA, USA; Department of Obstetrics and Gynecology, Duke University, Durham, NC, USA; Department of Medicine, Stanford University, Stanford, CA, USA; Department of Arthritis &amp; Clinical Immunology, Oklahoma Medical Research Foundation, Oklahoma City, OK, USA; Department of Family Medicine, Cambridge Health Alliance, Cambridge, MA, USA; Department of Pulmonary and Critical Care Medicine, University of Colorado, Aurora, CO, USA; Department of Biostatistics, University of Alabama at Birmingham, Birmingham, AL, USA; Department of Medicine, Division of Infectious Diseases, West Virginia School of Medicine, Morgantown, WV, USA; Department of Infectious Diseases, Massachusetts General Hospital, Boston, MA, USA; Department of Medicine, Harvard Medical School, Boston, MA, USA; Department of Medicine, NYU Langone Health, New York, NY, USA; Department of Medicine, University of California, San Francisco, San Francisco, CA, USA; Department of Pediatrics &amp; Department of Research Services, University of Illinois College of Medicine, Peoria, IL, USA; Department of Infectious Diseases, Massachusetts General Hospital, Boston, MA, USA; Department Integrated Physiology and Molecular Medicine, Pennington Biomedical Research Center, Baton Rouge, LA. USA; Department of Internal Medicine, University of Arizona, Phoenix, AZ, USA; Department of Medicine, Stanford University, Stanford, CA, USA; Department of Medicine, NYU Langone Health, New York, NY, USA; Department of Psychiatry, Harvard Medical School, MA, USA; Department of Internal Medicine and Neurology, University of Arizona College of Medicine Phoenix, Phoenix, AZ, USA; Communications Practice Area, RTI International, Research Triangle Park, NC, USA; Department of Internal Medicine, Brigham and Women's Hospital, Boston, MA, USA</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>A Least Absolute Shrinkage and Selection Operator-Derived Predictive Model for Postoperative Respiratory Failure in a Heterogeneous Adult Elective Surgery Patient Population</t>
+          <t>https://openalex.org/W4378610411</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>2023-12-01</t>
+          <t>Researching COVID to enhance recovery (RECOVER) adult study protocol: Rationale, objectives, and design</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>CHEST Critical Care</t>
+          <t>2023-05-28</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Elsevier BV</t>
+          <t>medRxiv (Cold Spring Harbor Laboratory)</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1016/j.chstcc.2023.100025</t>
+          <t>Cold Spring Harbor Laboratory</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
+          <t>https://doi.org/10.1101/2023.05.26.23290475</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
           <t>cc-by</t>
         </is>
       </c>
-      <c r="I19" t="inlineStr">
-        <is>
-          <t>publishedVersion</t>
-        </is>
-      </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>hybrid</t>
+          <t>submittedVersion</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
         <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L19" t="inlineStr">
+      <c r="M19" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M19" t="inlineStr">
+      <c r="N19" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N19" t="inlineStr">
+      <c r="O19" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O19" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1016/j.chstcc.2023.100025</t>
-        </is>
-      </c>
       <c r="P19" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1101/2023.05.26.23290475</t>
+        </is>
+      </c>
+      <c r="Q19" t="inlineStr">
         <is>
           <t>article</t>
         </is>

--- a/DOM_Banner/output/dept0713/Christian Bime_2023.xlsx
+++ b/DOM_Banner/output/dept0713/Christian Bime_2023.xlsx
@@ -507,7 +507,7 @@
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>141</t>
+          <t>163</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
@@ -594,7 +594,7 @@
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>52</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
@@ -681,7 +681,7 @@
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>19</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
@@ -768,7 +768,7 @@
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>8</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
@@ -795,47 +795,47 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Belinda Sun, Xiaoguang Sun, Carrie L. Kempf, Jin H. Song, Nancy G. Casanova, Sara M. Camp, Vivian Reyes Hernon, Marie Fallon, Christian Bime, Diego R. Martín, Cristina Travelli, Donna D. Zhang, Joe G.N. Garcia</t>
+          <t>Xiaoguang Sun, Saad Sammani, Matthew Hufford, Belinda Sun, Carrie L. Kempf, Sara M. Camp, Joe G.N. Garcia, Christian Bime</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Department of Pathology, College of Medicine University of Arizona  Tucson Arizona USA; Department of Medicine, College of Medicine University of Arizona  Tucson Arizona USA; Department of Medicine, College of Medicine University of Arizona  Tucson Arizona USA; Department of Medicine, College of Medicine University of Arizona  Tucson Arizona USA; Department of Medicine, College of Medicine University of Arizona  Tucson Arizona USA; Department of Medicine, College of Medicine University of Arizona  Tucson Arizona USA; Department of Medicine, College of Medicine University of Arizona  Tucson Arizona USA; Department of Medicine, College of Medicine University of Arizona  Phoenix Arizona USA; Department of Medicine, College of Medicine University of Arizona  Tucson Arizona USA; Department of Radiology and the Translational Imaging Center Houston Methodist Hospital and the Houston Methodist Research Institute  Houston Texas USA; Department of Drug Science University of Pavia  Pavia Italy; Department of Pharmacology and Toxicology, College of Pharmacy University of Arizona  Tucson Arizona USA; Department of Medicine, College of Medicine, University of Arizona, Tucson, Arizona, USA</t>
+          <t>Division of Pulmonary and Critical Care Medicine, College of Medicine University of Arizona Health Sciences  Tucson Arizona USA; Division of Pulmonary and Critical Care Medicine, College of Medicine University of Arizona Health Sciences  Tucson Arizona USA; Division of Pulmonary and Critical Care Medicine, College of Medicine University of Arizona Health Sciences  Tucson Arizona USA; Division of Pulmonary and Critical Care Medicine, College of Medicine University of Arizona Health Sciences  Tucson Arizona USA; Division of Pulmonary and Critical Care Medicine, College of Medicine University of Arizona Health Sciences  Tucson Arizona USA; Division of Pulmonary and Critical Care Medicine, College of Medicine University of Arizona Health Sciences  Tucson Arizona USA; Division of Pulmonary and Critical Care Medicine, College of Medicine University of Arizona Health Sciences  Tucson Arizona USA; Division of Pulmonary and Critical Care Medicine, College of Medicine, University of Arizona Health Sciences, Tucson, Arizona, USA</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4321443406</t>
+          <t>https://openalex.org/W4321369220</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Involvement of &lt;scp&gt;eNAMPT&lt;/scp&gt;/&lt;scp&gt;TLR4&lt;/scp&gt; inflammatory signaling in progression of non‐alcoholic fatty liver disease, steatohepatitis, and fibrosis</t>
+          <t>Targeting &lt;i&gt;SELPLG/&lt;/i&gt;P‐selectin glycoprotein ligand 1 in preclinical ARDS: Genetic and epigenetic regulation of the &lt;i&gt;SELPLG&lt;/i&gt; promoter</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2023-02-21</t>
+          <t>2023-01-01</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>The FASEB Journal</t>
+          <t>Pulmonary circulation</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Wiley</t>
+          <t>SAGE Publishing</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1096/fj.202201972rr</t>
+          <t>https://doi.org/10.1002/pul2.12206</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>cc-by</t>
+          <t>cc-by-nc</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -845,7 +845,7 @@
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>hybrid</t>
+          <t>gold</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
@@ -865,12 +865,12 @@
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>https://pubmed.ncbi.nlm.nih.gov/36809677</t>
+          <t>https://pubmed.ncbi.nlm.nih.gov/36873461</t>
         </is>
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1096/fj.202201972rr</t>
+          <t>https://doi.org/10.1002/pul2.12206</t>
         </is>
       </c>
       <c r="Q6" t="inlineStr">
@@ -882,47 +882,47 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Xiaoguang Sun, Saad Sammani, Matthew Hufford, Belinda Sun, Carrie L. Kempf, Sara M. Camp, Joe G.N. Garcia, Christian Bime</t>
+          <t>Belinda Sun, Xiaoguang Sun, Carrie L. Kempf, Jin H. Song, Nancy G. Casanova, Sara M. Camp, Vivian Reyes Hernon, Marie Fallon, Christian Bime, Diego R. Martín, Cristina Travelli, Donna D. Zhang, Joe G.N. Garcia</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Division of Pulmonary and Critical Care Medicine, College of Medicine University of Arizona Health Sciences  Tucson Arizona USA; Division of Pulmonary and Critical Care Medicine, College of Medicine University of Arizona Health Sciences  Tucson Arizona USA; Division of Pulmonary and Critical Care Medicine, College of Medicine University of Arizona Health Sciences  Tucson Arizona USA; Division of Pulmonary and Critical Care Medicine, College of Medicine University of Arizona Health Sciences  Tucson Arizona USA; Division of Pulmonary and Critical Care Medicine, College of Medicine University of Arizona Health Sciences  Tucson Arizona USA; Division of Pulmonary and Critical Care Medicine, College of Medicine University of Arizona Health Sciences  Tucson Arizona USA; Division of Pulmonary and Critical Care Medicine, College of Medicine University of Arizona Health Sciences  Tucson Arizona USA; Division of Pulmonary and Critical Care Medicine, College of Medicine, University of Arizona Health Sciences, Tucson, Arizona, USA</t>
+          <t>Department of Pathology, College of Medicine University of Arizona  Tucson Arizona USA; Department of Medicine, College of Medicine University of Arizona  Tucson Arizona USA; Department of Medicine, College of Medicine University of Arizona  Tucson Arizona USA; Department of Medicine, College of Medicine University of Arizona  Tucson Arizona USA; Department of Medicine, College of Medicine University of Arizona  Tucson Arizona USA; Department of Medicine, College of Medicine University of Arizona  Tucson Arizona USA; Department of Medicine, College of Medicine University of Arizona  Tucson Arizona USA; Department of Medicine, College of Medicine University of Arizona  Phoenix Arizona USA; Department of Medicine, College of Medicine University of Arizona  Tucson Arizona USA; Department of Radiology and the Translational Imaging Center Houston Methodist Hospital and the Houston Methodist Research Institute  Houston Texas USA; Department of Drug Science University of Pavia  Pavia Italy; Department of Pharmacology and Toxicology, College of Pharmacy University of Arizona  Tucson Arizona USA; Department of Medicine, College of Medicine, University of Arizona, Tucson, Arizona, USA</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4321369220</t>
+          <t>https://openalex.org/W4321443406</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Targeting &lt;i&gt;SELPLG/&lt;/i&gt;P‐selectin glycoprotein ligand 1 in preclinical ARDS: Genetic and epigenetic regulation of the &lt;i&gt;SELPLG&lt;/i&gt; promoter</t>
+          <t>Involvement of &lt;scp&gt;eNAMPT&lt;/scp&gt;/&lt;scp&gt;TLR4&lt;/scp&gt; inflammatory signaling in progression of non‐alcoholic fatty liver disease, steatohepatitis, and fibrosis</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>2023-01-01</t>
+          <t>2023-02-21</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Pulmonary circulation</t>
+          <t>The FASEB Journal</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>SAGE Publishing</t>
+          <t>Wiley</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1002/pul2.12206</t>
+          <t>https://doi.org/10.1096/fj.202201972rr</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>cc-by-nc</t>
+          <t>cc-by</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -932,7 +932,7 @@
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>gold</t>
+          <t>hybrid</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
@@ -942,7 +942,7 @@
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
@@ -952,12 +952,12 @@
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>https://pubmed.ncbi.nlm.nih.gov/36873461</t>
+          <t>https://pubmed.ncbi.nlm.nih.gov/36809677</t>
         </is>
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1002/pul2.12206</t>
+          <t>https://doi.org/10.1096/fj.202201972rr</t>
         </is>
       </c>
       <c r="Q7" t="inlineStr">
@@ -1029,7 +1029,7 @@
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
@@ -1056,47 +1056,47 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Christian Bime, Gordon Carr, Jie Pu, Sherri Kou, Ying Wang, Michael Simons</t>
+          <t>Heather Lynn, Xiaoguang Sun, Nancy G. Casanova, Christian Bime, Vivian Reyes Hernon, Clayton Lanham, Radu C. Oita, N. Ramos, Belinda Sun, Dawn K. Coletta, Sara M. Camp, Jason H. Karnes, Nathan A. Ellis, Joe G.N. Garcia</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>University of Arizona College of Medicine, Tucson, AZ, USA; University of Arizona College of Medicine, Tucson, AZ, USA; Banner Health, Phoenix, AZ, USA; Banner Health, Phoenix, AZ, USA; Banner Health, Phoenix, AZ, USA; Banner Health, Phoenix, AZ, USA</t>
+          <t>College of Medicine, University of Arizona Health Sciences, Tucson, AZ, USA; College of Medicine, University of Arizona Health Sciences, Tucson, AZ, USA; College of Medicine, University of Arizona Health Sciences, Tucson, AZ, USA; College of Medicine, University of Arizona Health Sciences, Tucson, AZ, USA; College of Medicine, University of Arizona Health Sciences, Tucson, AZ, USA; College of Medicine, University of Arizona Health Sciences, Tucson, AZ, USA; College of Medicine, University of Arizona Health Sciences, Tucson, AZ, USA; College of Medicine, University of Arizona Health Sciences, Tucson, AZ, USA; College of Medicine, University of Arizona Health Sciences, Tucson, AZ, USA; College of Medicine, University of Arizona Health Sciences, Tucson, AZ, USA; College of Medicine, University of Arizona Health Sciences, Tucson, AZ, USA; College of Pharmacy, University of Arizona Health Sciences, Tucson, AZ, USA; College of Medicine, University of Arizona Health Sciences, Tucson, AZ, USA; Dr. Herbert A. Wertheim Professor of Inflammation Science, Director, Center for Inflammation Science and Systems Medicine, University of Florida Scripps Research Institute, Jupiter, FL 33458, USA</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4384068065</t>
+          <t>https://openalex.org/W4384924313</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Delayed intubation associated with in-hospital mortality in patients with COVID-19 respiratory failure who fail heated and humified high flow nasal canula</t>
+          <t>Linkage of NAMPT promoter variants to eNAMPT secretion, plasma eNAMPT levels, and ARDS severity</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>2023-07-12</t>
+          <t>2023-01-01</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>BMC Anesthesiology</t>
+          <t>Therapeutic Advances in Respiratory Disease</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>BioMed Central</t>
+          <t>SAGE Publishing</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1186/s12871-023-02198-7</t>
+          <t>https://doi.org/10.1177/17534666231181262</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>cc-by</t>
+          <t>cc-by-nc</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -1126,12 +1126,12 @@
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>https://pubmed.ncbi.nlm.nih.gov/37438685</t>
+          <t>https://pubmed.ncbi.nlm.nih.gov/37477094</t>
         </is>
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1186/s12871-023-02198-7</t>
+          <t>https://doi.org/10.1177/17534666231181262</t>
         </is>
       </c>
       <c r="Q9" t="inlineStr">
@@ -1143,42 +1143,42 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>SARAH M UPSON, Christian Bime</t>
+          <t>Mladen Jergović, Makiko Watanabe, Ruchika Bhat, Christopher P Coplen, Sandip Ashok Sonar, Rachel Wong, Yvonne Castaneda, Lisa Davidson, Mrinalini Kala, Rachel C. Wilson, Homer L. Twigg, Kenneth S. Knox, Heidi E Erickson, Craig Weinkauf, Christian Bime, Billie Bixby, Sairam Parthasarathy, Jarrod Mosier, Bonnie LaFleur, Deepta Bhattacharya, Janko Nikolich‐Žugich</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t xml:space="preserve">; </t>
+          <t>Department of Immunobiology, University of Arizona College of Medicine-Tucson, P.O. Box 245221, 1501 N. Campbell Ave, Tucson, AZ, USA; Department of Immunobiology, University of Arizona College of Medicine-Tucson, P.O. Box 245221, 1501 N. Campbell Ave, Tucson, AZ, USA; Department of Immunobiology, University of Arizona College of Medicine-Tucson, P.O. Box 245221, 1501 N. Campbell Ave, Tucson, AZ, USA; Department of Immunobiology, University of Arizona College of Medicine-Tucson, P.O. Box 245221, 1501 N. Campbell Ave, Tucson, AZ, USA; Department of Immunobiology, University of Arizona College of Medicine-Tucson, P.O. Box 245221, 1501 N. Campbell Ave, Tucson, AZ, USA; Department of Immunobiology, University of Arizona College of Medicine-Tucson, P.O. Box 245221, 1501 N. Campbell Ave, Tucson, AZ, USA; Department of Immunobiology, University of Arizona College of Medicine-Tucson, P.O. Box 245221, 1501 N. Campbell Ave, Tucson, AZ, USA; Arizona Center on Aging, University of Arizona College of Medicine-Tucson, Tucson, AZ, USA; Department of Medicine, University of Arizona College of Medicine-Phoenix, Phoenix, AZ, USA; Division of Pulmonary Medicine, Department of Medicine, Indiana University, Indianapolis, IN, USA; Division of Pulmonary Medicine, Department of Medicine, Indiana University, Indianapolis, IN, USA; Department of Medicine, University of Arizona College of Medicine-Phoenix, Phoenix, AZ, USA; Department of Medicine, Arizona Respiratory Center, Tucson, AZ, USA; The Division of Vascular Surgery, University of Arizona, Tucson, AZ, USA; Division of Pulmonary, Allergy, Critical Care &amp; Sleep Medicine, University of Arizona College of Medicine Tucson, Tucson, AZ, USA; Division of Pulmonary, Allergy, Critical Care &amp; Sleep Medicine, University of Arizona College of Medicine Tucson, Tucson, AZ, USA; Division of Pulmonary, Allergy, Critical Care &amp; Sleep Medicine, University of Arizona College of Medicine Tucson, Tucson, AZ, USA; Division of Pulmonary, Allergy, Critical Care &amp; Sleep Medicine, University of Arizona College of Medicine Tucson, Tucson, AZ, USA; BIO5 Institute, University of Arizona, Tucson, USA; R. Ken Coit College of Pharmacy, Tucson, AZ, USA; Arizona Center on Aging, University of Arizona College of Medicine-Tucson, Tucson, AZ, USA</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4387249030</t>
+          <t>https://openalex.org/W4315754302</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>BEYOND THE MUDPILES OF METABOLIC ACIDOSIS</t>
+          <t>T-cell cellular stress and reticulocyte signatures, but not loss of naïve T lymphocytes, characterize severe COVID-19 in older adults</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>2023-10-01</t>
+          <t>2023-01-12</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Chest</t>
+          <t>GeroScience</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Elsevier BV</t>
+          <t>Springer International Publishing</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1016/j.chest.2023.07.1281</t>
+          <t>https://doi.org/10.1007/s11357-022-00724-y</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
@@ -1213,12 +1213,12 @@
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>https://pubmed.ncbi.nlm.nih.gov/36633825</t>
         </is>
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1016/j.chest.2023.07.1281</t>
+          <t>https://doi.org/10.1007/s11357-022-00724-y</t>
         </is>
       </c>
       <c r="Q10" t="inlineStr">
@@ -1230,47 +1230,47 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Mladen Jergović, Makiko Watanabe, Ruchika Bhat, Christopher P Coplen, Sandip Ashok Sonar, Rachel Wong, Yvonne Castaneda, Lisa B. Davidson, Mrinalini Kala, Rachel C Wilson, Homer L. Twigg, Kenneth S. Knox, Heidi E Erickson, Craig Weinkauf, Christian Bime, Billie Bixby, Sairam Parthasarathy, Jarrod Mosier, Bonnie LaFleur, Deepta Bhattacharya, Janko Nikolich‐Žugich</t>
+          <t>Christian Bime, Gordon Carr, Jie Pu, Sherri Kou, Ying Wang, Michael Simons</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Department of Immunobiology, University of Arizona College of Medicine-Tucson, P.O. Box 245221, 1501 N. Campbell Ave, Tucson, AZ, USA.; Department of Immunobiology, University of Arizona College of Medicine-Tucson, Tucson, USA; Department of Immunobiology, University of Arizona College of Medicine-Tucson, Tucson, USA; Department of Immunobiology, University of Arizona College of Medicine-Tucson, Tucson, USA; Department of Immunobiology, University of Arizona College of Medicine-Tucson, Tucson, USA; Department of Immunobiology, University of Arizona College of Medicine-Tucson, Tucson, USA; Vir, Inc., San Francisco, USA; Department of Immunobiology, University of Arizona College of Medicine-Tucson, Tucson, USA; Department of Immunobiology, University of Arizona College of Medicine-Tucson, Tucson, USA; Department of Medicine, University of Arizona College of Medicine-Phoenix, Phoenix, USA; Division of Pulmonary Medicine, Department of Medicine, Indiana University, Indianapolis, USA; Division of Pulmonary Medicine, Department of Medicine, Indiana University, Indianapolis, USA; Department of Medicine, University of Arizona College of Medicine-Phoenix, Phoenix, USA; Department of Medicine, Arizona Respiratory Center, Tucson, USA; The Division of Vascular Surgery, University of Arizona, Tucson, USA; Division of Pulmonary, Allergy, Critical Care &amp; Sleep Medicine, University of Arizona College of Medicine Tucson, Tucson, USA; Division of Pulmonary, Allergy, Critical Care &amp; Sleep Medicine, University of Arizona College of Medicine Tucson, Tucson, USA; Division of Pulmonary, Allergy, Critical Care &amp; Sleep Medicine, University of Arizona College of Medicine Tucson, Tucson, USA; Division of Pulmonary, Allergy, Critical Care &amp; Sleep Medicine, University of Arizona College of Medicine Tucson, Tucson, USA; BIO5 Institute, University of Arizona, Tucson, USA; R. Ken Coit College of Pharmacy, Tucson, USA; Department of Immunobiology, University of Arizona College of Medicine-Tucson, Tucson, USA; R. Ken Coit College of Pharmacy, Tucson, USA; Department of Immunobiology, University of Arizona College of Medicine-Tucson, Tucson, USA; R. Ken Coit College of Pharmacy, Tucson, USA</t>
+          <t>University of Arizona College of Medicine, Tucson, AZ, USA; University of Arizona College of Medicine, Tucson, AZ, USA; Banner Health, Phoenix, AZ, USA; Banner Health, Phoenix, AZ, USA; Banner Health, Phoenix, AZ, USA; Banner Health, Phoenix, AZ, USA</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4315754302</t>
+          <t>https://openalex.org/W4384068065</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>T-cell cellular stress and reticulocyte signatures, but not loss of naïve T lymphocytes, characterize severe COVID-19 in older adults</t>
+          <t>Delayed intubation associated with in-hospital mortality in patients with COVID-19 respiratory failure who fail heated and humified high flow nasal canula</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>2023-01-12</t>
+          <t>2023-07-12</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>GeroScience</t>
+          <t>BMC Anesthesiology</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Springer International Publishing</t>
+          <t>BioMed Central</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1007/s11357-022-00724-y</t>
+          <t>https://doi.org/10.1186/s12871-023-02198-7</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>cc-by</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -1280,7 +1280,7 @@
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>bronze</t>
+          <t>gold</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
@@ -1290,7 +1290,7 @@
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
@@ -1300,12 +1300,12 @@
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>https://pubmed.ncbi.nlm.nih.gov/36633825</t>
+          <t>https://pubmed.ncbi.nlm.nih.gov/37438685</t>
         </is>
       </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1007/s11357-022-00724-y</t>
+          <t>https://doi.org/10.1186/s12871-023-02198-7</t>
         </is>
       </c>
       <c r="Q11" t="inlineStr">
@@ -1317,57 +1317,57 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Adiv A. Johnson, B. Collura, Sachin Kumar, Madhav Chopra, Christian Bime</t>
+          <t>SARAH M UPSON, Christian Bime</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Pulmonary &amp; Critical Care Medicine, University of Arizona-Tucson, Tucson, AZ, United States; Internal Medicine, University of Arizona-Tucson, Tucson, AZ, United States; Pulmonary &amp; Critical Care Medicine, University of Arizona-Tucson, Tucson, AZ, United States; Pulmonary &amp; Critical Care Medicine, University of Arizona-Tucson, Tucson, AZ, United States; Pulmonary and Critical Care Medicine, University of Arizona School of Medicine Pulmonary and Critical Care Medicine, Tucson, AZ, United States</t>
+          <t xml:space="preserve">; </t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4367606384</t>
+          <t>https://openalex.org/W4387249030</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>A Confusing Case of Bloody Cough: Not Everything is TB</t>
+          <t>BEYOND THE MUDPILES OF METABOLIC ACIDOSIS</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>2023-05-01</t>
+          <t>2023-10-01</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
+          <t>Chest</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>Elsevier BV</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1016/j.chest.2023.07.1281</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1164/ajrccm-conference.2023.207.1_meetingabstracts.a4137</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>publishedVersion</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>closed</t>
+          <t>bronze</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
@@ -1377,7 +1377,7 @@
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
@@ -1392,7 +1392,7 @@
       </c>
       <c r="P12" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1164/ajrccm-conference.2023.207.1_meetingabstracts.a4137</t>
+          <t>https://doi.org/10.1016/j.chest.2023.07.1281</t>
         </is>
       </c>
       <c r="Q12" t="inlineStr">
@@ -1404,22 +1404,22 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>V. Kusupati, D.C. Miller, Jie Pu, A. Lang, Christian Bime</t>
+          <t>Adiv A. Johnson, B. Collura, Sachin Kumar, Madhav Chopra, Christian Bime</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Banner Health - Tucson, AZ, Tucson, AZ, United States; Pulmonary, Allergy, Critical Care and Sleep, University of Arizona, Tucson, AZ, United States; Banner Health - Tucson, AZ, Tucson, AZ, United States; Banner Health - Tucson, AZ, Tucson, AZ, United States; Pulmonary and Critical Care Medicine, University of Arizona School of Medicine Pulmonary and Critical Care Medicine, Tucson, AZ, United States</t>
+          <t>Pulmonary &amp; Critical Care Medicine, University of Arizona-Tucson, Tucson, AZ, United States; Internal Medicine, University of Arizona-Tucson, Tucson, AZ, United States; Pulmonary &amp; Critical Care Medicine, University of Arizona-Tucson, Tucson, AZ, United States; Pulmonary &amp; Critical Care Medicine, University of Arizona-Tucson, Tucson, AZ, United States; Pulmonary and Critical Care Medicine, University of Arizona School of Medicine Pulmonary and Critical Care Medicine, Tucson, AZ, United States</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4367606455</t>
+          <t>https://openalex.org/W4367606384</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Trend of ROX Index Predicts Failure of High Flow Nasal Cannula</t>
+          <t>A Confusing Case of Bloody Cough: Not Everything is TB</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -1439,7 +1439,7 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1164/ajrccm-conference.2023.207.1_meetingabstracts.a1690</t>
+          <t>https://doi.org/10.1164/ajrccm-conference.2023.207.1_meetingabstracts.a4137</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
@@ -1479,7 +1479,7 @@
       </c>
       <c r="P13" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1164/ajrccm-conference.2023.207.1_meetingabstracts.a1690</t>
+          <t>https://doi.org/10.1164/ajrccm-conference.2023.207.1_meetingabstracts.a4137</t>
         </is>
       </c>
       <c r="Q13" t="inlineStr">
@@ -1491,42 +1491,42 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Carleigh M. Rittel, Bryan Borg, Anelis V. Hanessian, Angela Kuhar, Mindy J. Fain, Christian Bime</t>
+          <t>V. Kusupati, D.C. Miller, Jie Pu, A. Lang, Christian Bime</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Anelis V. Hanessian, MBA, BSN, RN, has been a Registered Nurse for 12 years and is the Associate Director of a 24 bed Medical ICU at Banner University Medical Center – Tucson. She graduated from Johns Hopkins University School of Nursing in 2010 and later began working as a new graduate nurse in the Medical ICU. She has been the Associate Director for the Medical ICU for 7 years, but also has experience leading the Cardiovascular ICU and Endoscopy department. She received her Master's in Business Administration from the University of Arizona in 2020 and has dedicated her time in those roles focusing on staff development as well as process and quality improvement.; Angela Kuhar, OTR/L, graduated with a Master’s degree in Occupational Therapy from Nova Southeastern University in 2016. She has experience working in an intensive critical acute care hospital setting with a focus on facilitating individuals with activities to help promote/restore daily life tasks. She currently resides in California and continues work in the healthcare industry.; Author Contributions: C.M.R., C.B., A.K., and M.J.F. conceived the study idea. M.J.F. and C.M.R. applied for and received institutional review board approval. A.V.H. and C.M.R. compiled the database. Statistical analysis was performed by C.M.R. and B.A.B. with review and expertise provided by C.B. C.M.R. and B.A.B. drafted the manuscript.; Bryan A. Borg, MD, received his undergraduate and medical degrees from the University of Arizona and completed internal medicine residency and pulmonary/critical care fellowship training. He specializes in Pulmonary and Critical Care Medicine and currently practices at the University of Colorado Hospital and the Rocky Mountain Regional VA Medical Center, both in Aurora, Colorado. He is interested in decreasing the morbidity of ICU stays, including deconditioning, lightening of sedation and earlier weaning from mechanical ventilation, and in chronic care of respiratory effects of neuromuscular diseases including ALS.; C.B.'s research is supported by NIH K08 HL141623.; C.M.R. and B.A.B. contributed equally to this article.; Carleigh M. Rittel, PT, DPT, received her undergraduate degree from the Georgia Institute of Technology prior to receiving her doctorate of physical therapy from Elon University. She is a full time practicing physical therapist who specializes in treating patients in the ICU. In addition, she has participated in numerous research projects and studies that have been presented at national and international conferences and subsequently published. She's assisted in teaching various classes including at the university level. She's presented and led teams to create certified CEU courses for PTs and PTAs focusing on treating patients with covid-19 and on treating older adults. Apart from work she enjoys running and spending time outside.; The authors have disclosed that they have no significant relationship with, or financial interest in, any commercial companies pertaining to this article.; Anelis V. Hanessian, MBA, BSN, RN, has been a Registered Nurse for 12 years and is the Associate Director of a 24 bed Medical ICU at Banner University Medical Center – Tucson. She graduated from Johns Hopkins University School of Nursing in 2010 and later began working as a new graduate nurse in the Medical ICU. She has been the Associate Director for the Medical ICU for 7 years, but also has experience leading the Cardiovascular ICU and Endoscopy department. She received her Master's in Business Administration from the University of Arizona in 2020 and has dedicated her time in those roles focusing on staff development as well as process and quality improvement.; Angela Kuhar, OTR/L, graduated with a Master’s degree in Occupational Therapy from Nova Southeastern University in 2016. She has experience working in an intensive critical acute care hospital setting with a focus on facilitating individuals with activities to help promote/restore daily life tasks. She currently resides in California and continues work in the healthcare industry.; Author Contributions: C.M.R., C.B., A.K., and M.J.F. conceived the study idea. M.J.F. and C.M.R. applied for and received institutional review board approval. A.V.H. and C.M.R. compiled the database. Statistical analysis was performed by C.M.R. and B.A.B. with review and expertise provided by C.B. C.M.R. and B.A.B. drafted the manuscript.; Bryan A. Borg, MD, received his undergraduate and medical degrees from the University of Arizona and completed internal medicine residency and pulmonary/critical care fellowship training. He specializes in Pulmonary and Critical Care Medicine and currently practices at the University of Colorado Hospital and the Rocky Mountain Regional VA Medical Center, both in Aurora, Colorado. He is interested in decreasing the morbidity of ICU stays, including deconditioning, lightening of sedation and earlier weaning from mechanical ventilation, and in chronic care of respiratory effects of neuromuscular diseases including ALS.; C.B.'s research is supported by NIH K08 HL141623.; C.M.R. and B.A.B. contributed equally to this article.; Carleigh M. Rittel, PT, DPT, received her undergraduate degree from the Georgia Institute of Technology prior to receiving her doctorate of physical therapy from Elon University. She is a full time practicing physical therapist who specializes in treating patients in the ICU. In addition, she has participated in numerous research projects and studies that have been presented at national and international conferences and subsequently published. She's assisted in teaching various classes including at the university level. She's presented and led teams to create certified CEU courses for PTs and PTAs focusing on treating patients with covid-19 and on treating older adults. Apart from work she enjoys running and spending time outside.; The authors have disclosed that they have no significant relationship with, or financial interest in, any commercial companies pertaining to this article.; Anelis V. Hanessian, MBA, BSN, RN, has been a Registered Nurse for 12 years and is the Associate Director of a 24 bed Medical ICU at Banner University Medical Center – Tucson. She graduated from Johns Hopkins University School of Nursing in 2010 and later began working as a new graduate nurse in the Medical ICU. She has been the Associate Director for the Medical ICU for 7 years, but also has experience leading the Cardiovascular ICU and Endoscopy department. She received her Master's in Business Administration from the University of Arizona in 2020 and has dedicated her time in those roles focusing on staff development as well as process and quality improvement.; Angela Kuhar, OTR/L, graduated with a Master’s degree in Occupational Therapy from Nova Southeastern University in 2016. She has experience working in an intensive critical acute care hospital setting with a focus on facilitating individuals with activities to help promote/restore daily life tasks. She currently resides in California and continues work in the healthcare industry.; Author Contributions: C.M.R., C.B., A.K., and M.J.F. conceived the study idea. M.J.F. and C.M.R. applied for and received institutional review board approval. A.V.H. and C.M.R. compiled the database. Statistical analysis was performed by C.M.R. and B.A.B. with review and expertise provided by C.B. C.M.R. and B.A.B. drafted the manuscript.; Bryan A. Borg, MD, received his undergraduate and medical degrees from the University of Arizona and completed internal medicine residency and pulmonary/critical care fellowship training. He specializes in Pulmonary and Critical Care Medicine and currently practices at the University of Colorado Hospital and the Rocky Mountain Regional VA Medical Center, both in Aurora, Colorado. He is interested in decreasing the morbidity of ICU stays, including deconditioning, lightening of sedation and earlier weaning from mechanical ventilation, and in chronic care of respiratory effects of neuromuscular diseases including ALS.; C.B.'s research is supported by NIH K08 HL141623.; C.M.R. and B.A.B. contributed equally to this article.; Carleigh M. Rittel, PT, DPT, received her undergraduate degree from the Georgia Institute of Technology prior to receiving her doctorate of physical therapy from Elon University. She is a full time practicing physical therapist who specializes in treating patients in the ICU. In addition, she has participated in numerous research projects and studies that have been presented at national and international conferences and subsequently published. She's assisted in teaching various classes including at the university level. She's presented and led teams to create certified CEU courses for PTs and PTAs focusing on treating patients with covid-19 and on treating older adults. Apart from work she enjoys running and spending time outside.; The authors have disclosed that they have no significant relationship with, or financial interest in, any commercial companies pertaining to this article.; Anelis V. Hanessian, MBA, BSN, RN, has been a Registered Nurse for 12 years and is the Associate Director of a 24 bed Medical ICU at Banner University Medical Center – Tucson. She graduated from Johns Hopkins University School of Nursing in 2010 and later began working as a new graduate nurse in the Medical ICU. She has been the Associate Director for the Medical ICU for 7 years, but also has experience leading the Cardiovascular ICU and Endoscopy department. She received her Master's in Business Administration from the University of Arizona in 2020 and has dedicated her time in those roles focusing on staff development as well as process and quality improvement.; Angela Kuhar, OTR/L, graduated with a Master’s degree in Occupational Therapy from Nova Southeastern University in 2016. She has experience working in an intensive critical acute care hospital setting with a focus on facilitating individuals with activities to help promote/restore daily life tasks. She currently resides in California and continues work in the healthcare industry.; Author Contributions: C.M.R., C.B., A.K., and M.J.F. conceived the study idea. M.J.F. and C.M.R. applied for and received institutional review board approval. A.V.H. and C.M.R. compiled the database. Statistical analysis was performed by C.M.R. and B.A.B. with review and expertise provided by C.B. C.M.R. and B.A.B. drafted the manuscript.; Bryan A. Borg, MD, received his undergraduate and medical degrees from the University of Arizona and completed internal medicine residency and pulmonary/critical care fellowship training. He specializes in Pulmonary and Critical Care Medicine and currently practices at the University of Colorado Hospital and the Rocky Mountain Regional VA Medical Center, both in Aurora, Colorado. He is interested in decreasing the morbidity of ICU stays, including deconditioning, lightening of sedation and earlier weaning from mechanical ventilation, and in chronic care of respiratory effects of neuromuscular diseases including ALS.; C.B.'s research is supported by NIH K08 HL141623.; C.M.R. and B.A.B. contributed equally to this article.; Carleigh M. Rittel, PT, DPT, received her undergraduate degree from the Georgia Institute of Technology prior to receiving her doctorate of physical therapy from Elon University. She is a full time practicing physical therapist who specializes in treating patients in the ICU. In addition, she has participated in numerous research projects and studies that have been presented at national and international conferences and subsequently published. She's assisted in teaching various classes including at the university level. She's presented and led teams to create certified CEU courses for PTs and PTAs focusing on treating patients with covid-19 and on treating older adults. Apart from work she enjoys running and spending time outside.; The authors have disclosed that they have no significant relationship with, or financial interest in, any commercial companies pertaining to this article.; Anelis V. Hanessian, MBA, BSN, RN, has been a Registered Nurse for 12 years and is the Associate Director of a 24 bed Medical ICU at Banner University Medical Center – Tucson. She graduated from Johns Hopkins University School of Nursing in 2010 and later began working as a new graduate nurse in the Medical ICU. She has been the Associate Director for the Medical ICU for 7 years, but also has experience leading the Cardiovascular ICU and Endoscopy department. She received her Master's in Business Administration from the University of Arizona in 2020 and has dedicated her time in those roles focusing on staff development as well as process and quality improvement.; Angela Kuhar, OTR/L, graduated with a Master’s degree in Occupational Therapy from Nova Southeastern University in 2016. She has experience working in an intensive critical acute care hospital setting with a focus on facilitating individuals with activities to help promote/restore daily life tasks. She currently resides in California and continues work in the healthcare industry.; Author Contributions: C.M.R., C.B., A.K., and M.J.F. conceived the study idea. M.J.F. and C.M.R. applied for and received institutional review board approval. A.V.H. and C.M.R. compiled the database. Statistical analysis was performed by C.M.R. and B.A.B. with review and expertise provided by C.B. C.M.R. and B.A.B. drafted the manuscript.; Bryan A. Borg, MD, received his undergraduate and medical degrees from the University of Arizona and completed internal medicine residency and pulmonary/critical care fellowship training. He specializes in Pulmonary and Critical Care Medicine and currently practices at the University of Colorado Hospital and the Rocky Mountain Regional VA Medical Center, both in Aurora, Colorado. He is interested in decreasing the morbidity of ICU stays, including deconditioning, lightening of sedation and earlier weaning from mechanical ventilation, and in chronic care of respiratory effects of neuromuscular diseases including ALS.; C.B.'s research is supported by NIH K08 HL141623.; C.M.R. and B.A.B. contributed equally to this article.; Carleigh M. Rittel, PT, DPT, received her undergraduate degree from the Georgia Institute of Technology prior to receiving her doctorate of physical therapy from Elon University. She is a full time practicing physical therapist who specializes in treating patients in the ICU. In addition, she has participated in numerous research projects and studies that have been presented at national and international conferences and subsequently published. She's assisted in teaching various classes including at the university level. She's presented and led teams to create certified CEU courses for PTs and PTAs focusing on treating patients with covid-19 and on treating older adults. Apart from work she enjoys running and spending time outside.; The authors have disclosed that they have no significant relationship with, or financial interest in, any commercial companies pertaining to this article.; Anelis V. Hanessian, MBA, BSN, RN, has been a Registered Nurse for 12 years and is the Associate Director of a 24 bed Medical ICU at Banner University Medical Center – Tucson. She graduated from Johns Hopkins University School of Nursing in 2010 and later began working as a new graduate nurse in the Medical ICU. She has been the Associate Director for the Medical ICU for 7 years, but also has experience leading the Cardiovascular ICU and Endoscopy department. She received her Master's in Business Administration from the University of Arizona in 2020 and has dedicated her time in those roles focusing on staff development as well as process and quality improvement.; Angela Kuhar, OTR/L, graduated with a Master’s degree in Occupational Therapy from Nova Southeastern University in 2016. She has experience working in an intensive critical acute care hospital setting with a focus on facilitating individuals with activities to help promote/restore daily life tasks. She currently resides in California and continues work in the healthcare industry.; Author Contributions: C.M.R., C.B., A.K., and M.J.F. conceived the study idea. M.J.F. and C.M.R. applied for and received institutional review board approval. A.V.H. and C.M.R. compiled the database. Statistical analysis was performed by C.M.R. and B.A.B. with review and expertise provided by C.B. C.M.R. and B.A.B. drafted the manuscript.; Bryan A. Borg, MD, received his undergraduate and medical degrees from the University of Arizona and completed internal medicine residency and pulmonary/critical care fellowship training. He specializes in Pulmonary and Critical Care Medicine and currently practices at the University of Colorado Hospital and the Rocky Mountain Regional VA Medical Center, both in Aurora, Colorado. He is interested in decreasing the morbidity of ICU stays, including deconditioning, lightening of sedation and earlier weaning from mechanical ventilation, and in chronic care of respiratory effects of neuromuscular diseases including ALS.; C.B.'s research is supported by NIH K08 HL141623.; C.M.R. and B.A.B. contributed equally to this article.; Carleigh M. Rittel, PT, DPT, received her undergraduate degree from the Georgia Institute of Technology prior to receiving her doctorate of physical therapy from Elon University. She is a full time practicing physical therapist who specializes in treating patients in the ICU. In addition, she has participated in numerous research projects and studies that have been presented at national and international conferences and subsequently published. She's assisted in teaching various classes including at the university level. She's presented and led teams to create certified CEU courses for PTs and PTAs focusing on treating patients with covid-19 and on treating older adults. Apart from work she enjoys running and spending time outside.; The authors have disclosed that they have no significant relationship with, or financial interest in, any commercial companies pertaining to this article.</t>
+          <t>Banner Health - Tucson, AZ, Tucson, AZ, United States; Pulmonary, Allergy, Critical Care and Sleep, University of Arizona, Tucson, AZ, United States; Banner Health - Tucson, AZ, Tucson, AZ, United States; Banner Health - Tucson, AZ, Tucson, AZ, United States; Pulmonary and Critical Care Medicine, University of Arizona School of Medicine Pulmonary and Critical Care Medicine, Tucson, AZ, United States</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4377565590</t>
+          <t>https://openalex.org/W4367606455</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Longitudinal Assessment of Mobility and Self-care Among Critically Ill Older Adults. An Age-Friendly Health Systems Initiative Quality Improvement Study.</t>
+          <t>Trend of ROX Index Predicts Failure of High Flow Nasal Cannula</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>2023-07-01</t>
+          <t>2023-05-01</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Dimensions of Critical Care Nursing</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Lippincott Williams &amp; Wilkins</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1097/dcc.0000000000000588</t>
+          <t>https://doi.org/10.1164/ajrccm-conference.2023.207.1_meetingabstracts.a1690</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
@@ -1561,12 +1561,12 @@
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>https://pubmed.ncbi.nlm.nih.gov/37219478</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="P14" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1097/dcc.0000000000000588</t>
+          <t>https://doi.org/10.1164/ajrccm-conference.2023.207.1_meetingabstracts.a1690</t>
         </is>
       </c>
       <c r="Q14" t="inlineStr">
@@ -1578,57 +1578,57 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Heather Lynn, Xiaoguang Sun, Nancy G. Casanova, Christian Bime, Vivian Reyes Hernon, Clayton Lanham, Radu C. Oita, N. Ramos, Belinda Sun, Dawn K. Coletta, Sara M. Camp, Jason H. Karnes, Nathan A. Ellis, Joe G.N. Garcia</t>
+          <t>Carleigh M. Rittel, Bryan Borg, Anelis V. Hanessian, Angela Kuhar, Mindy J. Fain, Christian Bime</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>College of Medicine, University of Arizona Health Sciences, Tucson, AZ, USA; College of Medicine, University of Arizona Health Sciences, Tucson, AZ, USA; College of Medicine, University of Arizona Health Sciences, Tucson, AZ, USA; College of Medicine, University of Arizona Health Sciences, Tucson, AZ, USA; College of Medicine, University of Arizona Health Sciences, Tucson, AZ, USA; College of Medicine, University of Arizona Health Sciences, Tucson, AZ, USA; College of Medicine, University of Arizona Health Sciences, Tucson, AZ, USA; College of Medicine, University of Arizona Health Sciences, Tucson, AZ, USA; College of Medicine, University of Arizona Health Sciences, Tucson, AZ, USA; College of Medicine, University of Arizona Health Sciences, Tucson, AZ, USA; College of Medicine, University of Arizona Health Sciences, Tucson, AZ, USA; College of Pharmacy, University of Arizona Health Sciences, Tucson, AZ, USA; College of Medicine, University of Arizona Health Sciences, Tucson, AZ, USA; Dr. Herbert A. Wertheim Professor of Inflammation Science, Director, Center for Inflammation Science and Systems Medicine, University of Florida Scripps Research Institute, Jupiter, FL 33458, USA</t>
+          <t>Anelis V. Hanessian, MBA, BSN, RN, has been a Registered Nurse for 12 years and is the Associate Director of a 24 bed Medical ICU at Banner University Medical Center – Tucson. She graduated from Johns Hopkins University School of Nursing in 2010 and later began working as a new graduate nurse in the Medical ICU. She has been the Associate Director for the Medical ICU for 7 years, but also has experience leading the Cardiovascular ICU and Endoscopy department. She received her Master's in Business Administration from the University of Arizona in 2020 and has dedicated her time in those roles focusing on staff development as well as process and quality improvement.; Angela Kuhar, OTR/L, graduated with a Master’s degree in Occupational Therapy from Nova Southeastern University in 2016. She has experience working in an intensive critical acute care hospital setting with a focus on facilitating individuals with activities to help promote/restore daily life tasks. She currently resides in California and continues work in the healthcare industry.; Author Contributions: C.M.R., C.B., A.K., and M.J.F. conceived the study idea. M.J.F. and C.M.R. applied for and received institutional review board approval. A.V.H. and C.M.R. compiled the database. Statistical analysis was performed by C.M.R. and B.A.B. with review and expertise provided by C.B. C.M.R. and B.A.B. drafted the manuscript.; Bryan A. Borg, MD, received his undergraduate and medical degrees from the University of Arizona and completed internal medicine residency and pulmonary/critical care fellowship training. He specializes in Pulmonary and Critical Care Medicine and currently practices at the University of Colorado Hospital and the Rocky Mountain Regional VA Medical Center, both in Aurora, Colorado. He is interested in decreasing the morbidity of ICU stays, including deconditioning, lightening of sedation and earlier weaning from mechanical ventilation, and in chronic care of respiratory effects of neuromuscular diseases including ALS.; C.B.'s research is supported by NIH K08 HL141623.; C.M.R. and B.A.B. contributed equally to this article.; Carleigh M. Rittel, PT, DPT, received her undergraduate degree from the Georgia Institute of Technology prior to receiving her doctorate of physical therapy from Elon University. She is a full time practicing physical therapist who specializes in treating patients in the ICU. In addition, she has participated in numerous research projects and studies that have been presented at national and international conferences and subsequently published. She's assisted in teaching various classes including at the university level. She's presented and led teams to create certified CEU courses for PTs and PTAs focusing on treating patients with covid-19 and on treating older adults. Apart from work she enjoys running and spending time outside.; The authors have disclosed that they have no significant relationship with, or financial interest in, any commercial companies pertaining to this article.; Anelis V. Hanessian, MBA, BSN, RN, has been a Registered Nurse for 12 years and is the Associate Director of a 24 bed Medical ICU at Banner University Medical Center – Tucson. She graduated from Johns Hopkins University School of Nursing in 2010 and later began working as a new graduate nurse in the Medical ICU. She has been the Associate Director for the Medical ICU for 7 years, but also has experience leading the Cardiovascular ICU and Endoscopy department. She received her Master's in Business Administration from the University of Arizona in 2020 and has dedicated her time in those roles focusing on staff development as well as process and quality improvement.; Angela Kuhar, OTR/L, graduated with a Master’s degree in Occupational Therapy from Nova Southeastern University in 2016. She has experience working in an intensive critical acute care hospital setting with a focus on facilitating individuals with activities to help promote/restore daily life tasks. She currently resides in California and continues work in the healthcare industry.; Author Contributions: C.M.R., C.B., A.K., and M.J.F. conceived the study idea. M.J.F. and C.M.R. applied for and received institutional review board approval. A.V.H. and C.M.R. compiled the database. Statistical analysis was performed by C.M.R. and B.A.B. with review and expertise provided by C.B. C.M.R. and B.A.B. drafted the manuscript.; Bryan A. Borg, MD, received his undergraduate and medical degrees from the University of Arizona and completed internal medicine residency and pulmonary/critical care fellowship training. He specializes in Pulmonary and Critical Care Medicine and currently practices at the University of Colorado Hospital and the Rocky Mountain Regional VA Medical Center, both in Aurora, Colorado. He is interested in decreasing the morbidity of ICU stays, including deconditioning, lightening of sedation and earlier weaning from mechanical ventilation, and in chronic care of respiratory effects of neuromuscular diseases including ALS.; C.B.'s research is supported by NIH K08 HL141623.; C.M.R. and B.A.B. contributed equally to this article.; Carleigh M. Rittel, PT, DPT, received her undergraduate degree from the Georgia Institute of Technology prior to receiving her doctorate of physical therapy from Elon University. She is a full time practicing physical therapist who specializes in treating patients in the ICU. In addition, she has participated in numerous research projects and studies that have been presented at national and international conferences and subsequently published. She's assisted in teaching various classes including at the university level. She's presented and led teams to create certified CEU courses for PTs and PTAs focusing on treating patients with covid-19 and on treating older adults. Apart from work she enjoys running and spending time outside.; The authors have disclosed that they have no significant relationship with, or financial interest in, any commercial companies pertaining to this article.; Anelis V. Hanessian, MBA, BSN, RN, has been a Registered Nurse for 12 years and is the Associate Director of a 24 bed Medical ICU at Banner University Medical Center – Tucson. She graduated from Johns Hopkins University School of Nursing in 2010 and later began working as a new graduate nurse in the Medical ICU. She has been the Associate Director for the Medical ICU for 7 years, but also has experience leading the Cardiovascular ICU and Endoscopy department. She received her Master's in Business Administration from the University of Arizona in 2020 and has dedicated her time in those roles focusing on staff development as well as process and quality improvement.; Angela Kuhar, OTR/L, graduated with a Master’s degree in Occupational Therapy from Nova Southeastern University in 2016. She has experience working in an intensive critical acute care hospital setting with a focus on facilitating individuals with activities to help promote/restore daily life tasks. She currently resides in California and continues work in the healthcare industry.; Author Contributions: C.M.R., C.B., A.K., and M.J.F. conceived the study idea. M.J.F. and C.M.R. applied for and received institutional review board approval. A.V.H. and C.M.R. compiled the database. Statistical analysis was performed by C.M.R. and B.A.B. with review and expertise provided by C.B. C.M.R. and B.A.B. drafted the manuscript.; Bryan A. Borg, MD, received his undergraduate and medical degrees from the University of Arizona and completed internal medicine residency and pulmonary/critical care fellowship training. He specializes in Pulmonary and Critical Care Medicine and currently practices at the University of Colorado Hospital and the Rocky Mountain Regional VA Medical Center, both in Aurora, Colorado. He is interested in decreasing the morbidity of ICU stays, including deconditioning, lightening of sedation and earlier weaning from mechanical ventilation, and in chronic care of respiratory effects of neuromuscular diseases including ALS.; C.B.'s research is supported by NIH K08 HL141623.; C.M.R. and B.A.B. contributed equally to this article.; Carleigh M. Rittel, PT, DPT, received her undergraduate degree from the Georgia Institute of Technology prior to receiving her doctorate of physical therapy from Elon University. She is a full time practicing physical therapist who specializes in treating patients in the ICU. In addition, she has participated in numerous research projects and studies that have been presented at national and international conferences and subsequently published. She's assisted in teaching various classes including at the university level. She's presented and led teams to create certified CEU courses for PTs and PTAs focusing on treating patients with covid-19 and on treating older adults. Apart from work she enjoys running and spending time outside.; The authors have disclosed that they have no significant relationship with, or financial interest in, any commercial companies pertaining to this article.; Anelis V. Hanessian, MBA, BSN, RN, has been a Registered Nurse for 12 years and is the Associate Director of a 24 bed Medical ICU at Banner University Medical Center – Tucson. She graduated from Johns Hopkins University School of Nursing in 2010 and later began working as a new graduate nurse in the Medical ICU. She has been the Associate Director for the Medical ICU for 7 years, but also has experience leading the Cardiovascular ICU and Endoscopy department. She received her Master's in Business Administration from the University of Arizona in 2020 and has dedicated her time in those roles focusing on staff development as well as process and quality improvement.; Angela Kuhar, OTR/L, graduated with a Master’s degree in Occupational Therapy from Nova Southeastern University in 2016. She has experience working in an intensive critical acute care hospital setting with a focus on facilitating individuals with activities to help promote/restore daily life tasks. She currently resides in California and continues work in the healthcare industry.; Author Contributions: C.M.R., C.B., A.K., and M.J.F. conceived the study idea. M.J.F. and C.M.R. applied for and received institutional review board approval. A.V.H. and C.M.R. compiled the database. Statistical analysis was performed by C.M.R. and B.A.B. with review and expertise provided by C.B. C.M.R. and B.A.B. drafted the manuscript.; Bryan A. Borg, MD, received his undergraduate and medical degrees from the University of Arizona and completed internal medicine residency and pulmonary/critical care fellowship training. He specializes in Pulmonary and Critical Care Medicine and currently practices at the University of Colorado Hospital and the Rocky Mountain Regional VA Medical Center, both in Aurora, Colorado. He is interested in decreasing the morbidity of ICU stays, including deconditioning, lightening of sedation and earlier weaning from mechanical ventilation, and in chronic care of respiratory effects of neuromuscular diseases including ALS.; C.B.'s research is supported by NIH K08 HL141623.; C.M.R. and B.A.B. contributed equally to this article.; Carleigh M. Rittel, PT, DPT, received her undergraduate degree from the Georgia Institute of Technology prior to receiving her doctorate of physical therapy from Elon University. She is a full time practicing physical therapist who specializes in treating patients in the ICU. In addition, she has participated in numerous research projects and studies that have been presented at national and international conferences and subsequently published. She's assisted in teaching various classes including at the university level. She's presented and led teams to create certified CEU courses for PTs and PTAs focusing on treating patients with covid-19 and on treating older adults. Apart from work she enjoys running and spending time outside.; The authors have disclosed that they have no significant relationship with, or financial interest in, any commercial companies pertaining to this article.; Anelis V. Hanessian, MBA, BSN, RN, has been a Registered Nurse for 12 years and is the Associate Director of a 24 bed Medical ICU at Banner University Medical Center – Tucson. She graduated from Johns Hopkins University School of Nursing in 2010 and later began working as a new graduate nurse in the Medical ICU. She has been the Associate Director for the Medical ICU for 7 years, but also has experience leading the Cardiovascular ICU and Endoscopy department. She received her Master's in Business Administration from the University of Arizona in 2020 and has dedicated her time in those roles focusing on staff development as well as process and quality improvement.; Angela Kuhar, OTR/L, graduated with a Master’s degree in Occupational Therapy from Nova Southeastern University in 2016. She has experience working in an intensive critical acute care hospital setting with a focus on facilitating individuals with activities to help promote/restore daily life tasks. She currently resides in California and continues work in the healthcare industry.; Author Contributions: C.M.R., C.B., A.K., and M.J.F. conceived the study idea. M.J.F. and C.M.R. applied for and received institutional review board approval. A.V.H. and C.M.R. compiled the database. Statistical analysis was performed by C.M.R. and B.A.B. with review and expertise provided by C.B. C.M.R. and B.A.B. drafted the manuscript.; Bryan A. Borg, MD, received his undergraduate and medical degrees from the University of Arizona and completed internal medicine residency and pulmonary/critical care fellowship training. He specializes in Pulmonary and Critical Care Medicine and currently practices at the University of Colorado Hospital and the Rocky Mountain Regional VA Medical Center, both in Aurora, Colorado. He is interested in decreasing the morbidity of ICU stays, including deconditioning, lightening of sedation and earlier weaning from mechanical ventilation, and in chronic care of respiratory effects of neuromuscular diseases including ALS.; C.B.'s research is supported by NIH K08 HL141623.; C.M.R. and B.A.B. contributed equally to this article.; Carleigh M. Rittel, PT, DPT, received her undergraduate degree from the Georgia Institute of Technology prior to receiving her doctorate of physical therapy from Elon University. She is a full time practicing physical therapist who specializes in treating patients in the ICU. In addition, she has participated in numerous research projects and studies that have been presented at national and international conferences and subsequently published. She's assisted in teaching various classes including at the university level. She's presented and led teams to create certified CEU courses for PTs and PTAs focusing on treating patients with covid-19 and on treating older adults. Apart from work she enjoys running and spending time outside.; The authors have disclosed that they have no significant relationship with, or financial interest in, any commercial companies pertaining to this article.; Anelis V. Hanessian, MBA, BSN, RN, has been a Registered Nurse for 12 years and is the Associate Director of a 24 bed Medical ICU at Banner University Medical Center – Tucson. She graduated from Johns Hopkins University School of Nursing in 2010 and later began working as a new graduate nurse in the Medical ICU. She has been the Associate Director for the Medical ICU for 7 years, but also has experience leading the Cardiovascular ICU and Endoscopy department. She received her Master's in Business Administration from the University of Arizona in 2020 and has dedicated her time in those roles focusing on staff development as well as process and quality improvement.; Angela Kuhar, OTR/L, graduated with a Master’s degree in Occupational Therapy from Nova Southeastern University in 2016. She has experience working in an intensive critical acute care hospital setting with a focus on facilitating individuals with activities to help promote/restore daily life tasks. She currently resides in California and continues work in the healthcare industry.; Author Contributions: C.M.R., C.B., A.K., and M.J.F. conceived the study idea. M.J.F. and C.M.R. applied for and received institutional review board approval. A.V.H. and C.M.R. compiled the database. Statistical analysis was performed by C.M.R. and B.A.B. with review and expertise provided by C.B. C.M.R. and B.A.B. drafted the manuscript.; Bryan A. Borg, MD, received his undergraduate and medical degrees from the University of Arizona and completed internal medicine residency and pulmonary/critical care fellowship training. He specializes in Pulmonary and Critical Care Medicine and currently practices at the University of Colorado Hospital and the Rocky Mountain Regional VA Medical Center, both in Aurora, Colorado. He is interested in decreasing the morbidity of ICU stays, including deconditioning, lightening of sedation and earlier weaning from mechanical ventilation, and in chronic care of respiratory effects of neuromuscular diseases including ALS.; C.B.'s research is supported by NIH K08 HL141623.; C.M.R. and B.A.B. contributed equally to this article.; Carleigh M. Rittel, PT, DPT, received her undergraduate degree from the Georgia Institute of Technology prior to receiving her doctorate of physical therapy from Elon University. She is a full time practicing physical therapist who specializes in treating patients in the ICU. In addition, she has participated in numerous research projects and studies that have been presented at national and international conferences and subsequently published. She's assisted in teaching various classes including at the university level. She's presented and led teams to create certified CEU courses for PTs and PTAs focusing on treating patients with covid-19 and on treating older adults. Apart from work she enjoys running and spending time outside.; The authors have disclosed that they have no significant relationship with, or financial interest in, any commercial companies pertaining to this article.</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4384924313</t>
+          <t>https://openalex.org/W4377565590</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Linkage of NAMPT promoter variants to eNAMPT secretion, plasma eNAMPT levels, and ARDS severity</t>
+          <t>Longitudinal Assessment of Mobility and Self-care Among Critically Ill Older Adults. An Age-Friendly Health Systems Initiative Quality Improvement Study.</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>2023-01-01</t>
+          <t>2023-07-01</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Therapeutic Advances in Respiratory Disease</t>
+          <t>Dimensions of Critical Care Nursing</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>SAGE Publishing</t>
+          <t>Lippincott Williams &amp; Wilkins</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1177/17534666231181262</t>
+          <t>https://doi.org/10.1097/dcc.0000000000000588</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>cc-by-nc</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>publishedVersion</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>gold</t>
+          <t>closed</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
@@ -1648,12 +1648,12 @@
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>https://pubmed.ncbi.nlm.nih.gov/37477094</t>
+          <t>https://pubmed.ncbi.nlm.nih.gov/37219478</t>
         </is>
       </c>
       <c r="P15" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1177/17534666231181262</t>
+          <t>https://doi.org/10.1097/dcc.0000000000000588</t>
         </is>
       </c>
       <c r="Q15" t="inlineStr">
@@ -1665,42 +1665,42 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Christian Bime, Ying Wang, Gordon Carr, Dennis Swearingen, Sherri Kou, Pam Thompson, Vinita Kusupati, Sairam Parthasarathy</t>
+          <t>Leora I. Horwitz, Tanayott Thaweethai, Shari B. Brosnahan, Mine S. Cicek, Megan L. Fitzgerald, Jason D Goldman, Rachel Hess, Sally Hodder, Vanessa L. Jacoby, Michael R. Jordan, Jerry A. Krishnan, Adeyinka O. Laiyemo, Torri D. Metz, Lauren M. Nichols, Rachel E. Patzer, A. S. C. Sekar, Nora G. Singer, Lauren E. Stiles, Barbara S. Taylor, Shifa Ahmed, Heather Algren, Khamal Anglin, Lisa Aponte‐Soto, Hassan Ashktorab, Ingrid V. Bassett, Brahmchetna Bedi, Nahid Bhadelia, Christian Bime, Marie-Abèle Bind, Lora Black, Andra L. Blomkalns, Hassan Brim, Mario Castro, James Chan, Alexander Charney, Benjamin Chen, Lei Chen, Peter Chen, David Chestek, Lori B. Chibnik, Dominic C. Chow, Helen Y. Chu, Rebecca G. Clifton, Shelby Collins, Maged M. Costantine, Sushma K. Cribbs, Steven G. Deeks, John D. Dickinson, Sarah E. Donohue, Matthew S Durstenfeld, Ivette F. Emery, Kristine M. Erlandson, Julio C. Facelli, Rachael Farah-Abraham, Aloke V. Finn, Michael B. Fischer, Valerie J. Flaherman, Judes Fleurimont, Vivian Fonseca, Emily J. Gallagher, Jennifer C. Gander, Maria Laura Gennaro, Kelly S. Gibson, Minjoung Go, Steven N. Goodman, Joey P. Granger, Frank L. Greenway, James Lee Hafner, Jenny E. Han, Michelle Harkins, Kristine S.P. Hauser, James R. Heath, Carla R. Hernandez, On Ho, Matthew Hoffman, Susan E. Hoover, Carol R. Horowitz, Hui-Chu Hsu, Priscilla Y. Hsue, Brenna L. Hughes, Prasanna Jagannathan, Judith A. James, J. John, Sarah E. Jolley, Suzanne E. Judd, Joy J. Juskowich, Diane G. Kanjilal, Elizabeth W. Karlson, Stuart D. Katz, John D. Kelly, Sarah Kelly, Arthur Y. Kim, John P. Kirwan, Kenneth S. Knox, Andre Kumar, Michelle F. Lamendola-Essel, Margaret Lanca, Joyce K. Lee-lannotti, R. Craig Lefebvre, Bruce D. Levy</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Division of Pulmonary, Allergy, Critical Care &amp; Sleep Medicine, Department of Medicine, University of Arizona, Tucson, AZ, United States; Department of Informatics Technology, Banner Health, Phoenix, AZ, United States; Division of Pulmonary, Allergy, Critical Care &amp; Sleep Medicine, Department of Medicine, University of Arizona, Tucson, AZ, United States; Department of Biomedical Informatics, University of Arizona College of Medicine, Phoenix, AZ, United States; Department of Medical Informatics, Banner Health, Phoenix, AZ, United States; Department of Informatics Technology, Banner Health, Phoenix, AZ, United States; Department of Academic and Facilities Research, Banner Health, Phoenix, AZ, United States; Division of General Internal Medicine, Department of Medicine, University of Arizona, Tucson, AZ, United States; Division of Pulmonary, Allergy, Critical Care &amp; Sleep Medicine, Department of Medicine, University of Arizona, Tucson, AZ, United States</t>
+          <t>Department of Population Health, NYU Grossman School of Medicine, New York, NY, USA; Department of Biostatistics, Massachusetts General Hospital, Boston, MA, USA; Division of Pulmonary Critical Care and Sleep Medicine, NYU Langone Health, New York, NY, USA; Department of Laboratory Medicine and Pathology, Mayo Clinic, Rochester, MN, USA; Patient Led Research Collaboration on COVID-19, Washington, DC, USA; Division of Infectious Diseases, Providence Swedish Medical Center, Seattle, WA, USA; Department of Population Health Sciences and Internal Medicine, University of Utah School of Medicine, Salt Lake City, UT, USA; Department of Medicine, West Virginia University, Morgantown, WV, USA; Department of Obstetrics, Gynecology, and Reproductive Sciences, University of California, San Francisco, San Francisco, CA, USA; Division of Geographic Medicine and Infectious Diseases, Tufts Medical Center, Medford, MA, USA; Department of Medicine, University of Illinois Chicago, Chicago, IL, USA; Department of Medicine, Howard University, Washington DC, USA; Department of Obstetrics and Gynecology, University of Utah Health, Salt Lake City, UT, USA; Body Politic COVID-19 Support Group, Boston, MA, USA; Department of Medicine and Surgery, Health Services Research Center, Emory University School of Medicine, Atlanta, GA, USA; Patient Led Research Collaboration on COVID-19, Washington, DC, USA; Department of Medicine and Rheumatology, The MetroHealth Medical Center, Cleveland, OH, USA; Department of Neurology, Stony Brook University Renaissance School of Medicine, Stony Brook, NY, USA; Department of Medicine, Division of Infectious Diseases and Infectious Diseases, Long School of Medicine, University of Texas Health Science Center San Antonio, San Antonio, TX, USA; Department of Biostatistics, Massachusetts General Hospital, Boston, MA, USA; Swedish Center for Research and Innovation, Providence Swedish Medical Center, Seattle, WA, USA; Department of Epidemiology and Biostatistics, University of California at San Francisco Institute of Global Health Sciences, San Francisco, San Francisco, CA, USA; College of Science and Health, Department of Health Sciences, DePaul University, Chicago, IL, USA; Department of Medicine, Howard University, Washington DC, USA; Medical Practice Evaluation Center, Department of Medicine, Massachusetts General Hospital, Harvard Medical School, Boston, MA, USA; Department of Medicine, Emory University, Atlanta, GA, USA; Center for Emerging Infectious Diseases Policy and Research, Boston University School of Medicine, Boston, MA, USA; Department of Medicine, University of Arizona, Tucson, AZ, USA; Department of Biostatistics, Massachusetts General Hospital, Boston, MA, USA; Department of Clinical Research, Sanford Research, Sioux Falls, SD, USA; Department of Emergency Medicine, Stanford University, Stanford, CA, USA; Department of Pathology, Howard University, Washington, DC, USA; Division of Pulmonary and Critical Care, University of Kansas Medical Center, Kansas City, KS, USA; Department of Biostatistics, Massachusetts General Hospital, Boston, MA, USA; Charles Bronfman Institute for Personalized Medicine, Icahn School of Medicine at Mount Sinai, New York, NY, USA; Division of Infectious Disease, Department of Medicine, Icahn School of Medicine at Mount Sinai, New York, NY, USA; Department of Medicine, Brigham and Women's Hospital, Boston, MA, USA; Department of Medicine, Cedars-Sinai Medical Center, Los Angeles, CA, USA; Department of Emergency Medicine, University of Illinois Chicago, Chicago, IL, USA; Department of Neurology, Massachusetts General Hospital, Boston, MA, USA; Department of Medicine, University of Hawaii at Manoa John A. Burns School of Medicine, Honolulu, HI, USA; Department of Allergy &amp; Infectious Diseases, University of Washington, Seattle, WA, USA; Department of Biostatistics, George Washington University, Washington DC, USA; Department of Medicine, Emory University, Atlanta, GA, USA; Department of Obstetrics and Gynecology, The Ohio State University Hospital, Columbus, OH, USA; Department of Medicine, Emory University, Atlanta, GA, USA; Department of Medicine, University of California, San Francisco, San Francisco, CA, USA; Department of Internal Medicine, University of Nebraska Medical Center, Omaha, NE, USA; Department of Research Services, University of Illinois College of Medicine, Peoria, IL, USA; Department of Medicine, Division of Cardiology at Zuckerberg San Francisco General, University of California San Francisco, San Francisco, CA, USA; MaineHealth Institute for Research, MaineHealth, Scarborough, ME, USA; Department of Medicine, University of Colorado Anschutz Medical Campus, Aurora, CO, USA; Department of Biomedical Informatics and Clinical and Translational Science Institute, University of Utah, Salt Lake City, UT, USA; Department of Medicine, Division of Infectious Diseases, Emory University School of Medicine, Atlanta, GA, USA; Department of Pathology, CVPath Institute, Gaithersburg, MD, USA; Department of Medicine, Division of Infectious Diseases and Infectious Diseases, Long School of Medicine, University of Texas Health Science Center San Antonio, San Antonio, TX, USA; Department of Pediatrics, University of California, San Francisco, San Francisco, CA, USA; Mile Square Health Center, University of Illinois Chicago, University of Illinois Chicago, IL, USA; Department of Medicine, Tulane University School of Medicine, New Orleans, LA, USA; Department of Endocrinology, Diabetes and Bone Disease, Icahn School of Medicine at Mount Sinai, New York, NY, USA; Center for Research and Evaluation, Kaiser Permanente of Georgia, Atlanta, GA, USA; Public Health Research Institute and Department of Medicine, Rutgers New Jersey Medical School, Newark, NJ, USA; Department of Obstetrics and Gynecology, MetroHealth System, Cleveland, OH, USA; Department of Medicine, Stanford University, Stanford, CA, USA; Department of Epidemiology and Population Health, Stanford University School of Medicine, Stanford, CA, USA; Department of Physiology &amp; Biophysics, University of Mississippi Medical Center, Jackson, MS, USA; Clinical Trials, Pennington Biomedical Research Center, Baton Rouge, LA, USA; Department of Emergency Medicine, OSF Saint Francis Medical Center, Peoria, IL, USA; Department of Pulmonary and Critical Care, Emory University School of Medicine, Atlanta, GA, USA; Department of Internal Medicine University of New Mexico, Health Science Center, Albuquerque, NM, USA; Clinical Research Center, Beth Israel Deaconess Medical Center, Boston, MA, USA; Department of Bioengineering, Institute for Systems Biology, Seattle, WA, USA; Clinical Research Center, University Hospitals Cleveland Medical Center, Cleveland, OH, USA; Seattle Children's Therapeutics, Seattle, WA, USA; Department of Obstetrics and Gynecology, Christiana Care Health Services, Newark, DE, USA; Department of Clinical Research, Sanford Research, Sioux Falls, SD, USA; Institute for Health Equity Research, Icahn School of Medicine at Mount Sinai, New York, NY, USA; Department of Internal Medicine, University of Arizona, Phoenix, AZ, USA; Department of Medicine, University of California, San Francisco, San Francisco, CA, USA; Department of Obstetrics and Gynecology, Duke University, Durham, NC, USA; Department of Medicine, Stanford University, Stanford, CA, USA; Department of Arthritis &amp; Clinical Immunology, Oklahoma Medical Research Foundation, Oklahoma City, OK, USA; Department of Family Medicine, Cambridge Health Alliance, Cambridge, MA, USA; Department of Pulmonary and Critical Care Medicine, University of Colorado, Aurora, CO, USA; Department of Biostatistics, University of Alabama at Birmingham, Birmingham, AL, USA; Department of Medicine, Division of Infectious Diseases, West Virginia School of Medicine, Morgantown, WV, USA; Department of Infectious Diseases, Massachusetts General Hospital, Boston, MA, USA; Department of Medicine, Harvard Medical School, Boston, MA, USA; Department of Medicine, NYU Langone Health, New York, NY, USA; Department of Medicine, University of California, San Francisco, San Francisco, CA, USA; Department of Pediatrics &amp; Department of Research Services, University of Illinois College of Medicine, Peoria, IL, USA; Department of Infectious Diseases, Massachusetts General Hospital, Boston, MA, USA; Department Integrated Physiology and Molecular Medicine, Pennington Biomedical Research Center, Baton Rouge, LA. USA; Department of Internal Medicine, University of Arizona, Phoenix, AZ, USA; Department of Medicine, Stanford University, Stanford, CA, USA; Department of Medicine, NYU Langone Health, New York, NY, USA; Department of Psychiatry, Harvard Medical School, MA, USA; Department of Internal Medicine and Neurology, University of Arizona College of Medicine Phoenix, Phoenix, AZ, USA; Communications Practice Area, RTI International, Research Triangle Park, NC, USA; Department of Internal Medicine, Brigham and Women's Hospital, Boston, MA, USA</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4385855925</t>
+          <t>https://openalex.org/W4378610411</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Disparities in outcomes of COVID-19 hospitalizations in native American individuals</t>
+          <t>Researching COVID to enhance recovery (RECOVER) adult study protocol: Rationale, objectives, and design</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>2023-08-15</t>
+          <t>2023-05-28</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Frontiers in Public Health</t>
+          <t>medRxiv (Cold Spring Harbor Laboratory)</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Frontiers Media</t>
+          <t>Cold Spring Harbor Laboratory</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>https://doi.org/10.3389/fpubh.2023.1220582</t>
+          <t>https://doi.org/10.1101/2023.05.26.23290475</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
@@ -1710,12 +1710,12 @@
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>publishedVersion</t>
+          <t>submittedVersion</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>gold</t>
+          <t>green</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
@@ -1735,12 +1735,12 @@
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>https://pubmed.ncbi.nlm.nih.gov/37649785</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="P16" t="inlineStr">
         <is>
-          <t>https://doi.org/10.3389/fpubh.2023.1220582</t>
+          <t>https://doi.org/10.1101/2023.05.26.23290475</t>
         </is>
       </c>
       <c r="Q16" t="inlineStr">
@@ -1752,57 +1752,57 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Jacqueline C. Stocking, Sandra L. Taylor, Stanley Fan, Theodora Wingert, Christiana Drake, Janet Aldrich, Michael Ong, Alpesh Amin, Rebecca A. Marmor, Laura N Godat, Maxime Cannesson, Michael A. Gropper, Garth H. Utter, CHRISTIAN E SANDROCK, Christian Bime, Jarrod Mosier, Vignesh Subbian, JASON Y ADAMS, Nicholas J. Kenyon, TIMOTHY E ALBERTSON, Joe G.N. Garcia, Ivo Abraham</t>
+          <t>Christian Bime, Ying Wang, Gordon Carr, Dennis Swearingen, Sherri Kou, Pam Thompson, Vinita Kusupati, Sairam Parthasarathy</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t xml:space="preserve">; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; </t>
+          <t>Division of Pulmonary, Allergy, Critical Care &amp; Sleep Medicine, Department of Medicine, University of Arizona, Tucson, AZ, United States; Department of Informatics Technology, Banner Health, Phoenix, AZ, United States; Division of Pulmonary, Allergy, Critical Care &amp; Sleep Medicine, Department of Medicine, University of Arizona, Tucson, AZ, United States; Department of Biomedical Informatics, University of Arizona College of Medicine, Phoenix, AZ, United States; Department of Medical Informatics, Banner Health, Phoenix, AZ, United States; Department of Informatics Technology, Banner Health, Phoenix, AZ, United States; Department of Academic and Facilities Research, Banner Health, Phoenix, AZ, United States; Division of General Internal Medicine, Department of Medicine, University of Arizona, Tucson, AZ, United States; Division of Pulmonary, Allergy, Critical Care &amp; Sleep Medicine, Department of Medicine, University of Arizona, Tucson, AZ, United States</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4387268415</t>
+          <t>https://openalex.org/W4385855925</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>A LASSO-DERIVED PREDICTIVE MODEL FOR POSTOPERATIVE RESPIRATORY FAILURE IN A HETEROGENEOUS ADULT ELECTIVE SURGERY PATIENT POPULATION</t>
+          <t>Disparities in outcomes of COVID-19 hospitalizations in native American individuals</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>2023-10-01</t>
+          <t>2023-08-15</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Chest</t>
+          <t>Frontiers in Public Health</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Elsevier BV</t>
+          <t>Frontiers Media</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1016/j.chest.2023.07.1061</t>
+          <t>https://doi.org/10.3389/fpubh.2023.1220582</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>cc-by</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>publishedVersion</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>closed</t>
+          <t>gold</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
@@ -1822,12 +1822,12 @@
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>https://pubmed.ncbi.nlm.nih.gov/37649785</t>
         </is>
       </c>
       <c r="P17" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1016/j.chest.2023.07.1061</t>
+          <t>https://doi.org/10.3389/fpubh.2023.1220582</t>
         </is>
       </c>
       <c r="Q17" t="inlineStr">
@@ -1839,7 +1839,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Jacqueline C. Stocking, Sandra L. Taylor, Shaosheng Fan, Theodora Wingert, Christiana Drake, Janet Aldrich, Michael Ong, Alpesh Amin, Rebecca A. Marmor, Laura N Godat, Maxime Cannesson, Michael A. Gropper, Garth H. Utter, Christian Sandrock, Christian Bime, Jarrod Mosier, Vignesh Subbian, Jason Adams, Nicholas J. Kenyon, Timothy E Albertson, Joe G.N. Garcia, Ivo Abraham</t>
+          <t>Jacqueline C. Stocking, Sandra L. Taylor, Stanley Fan, Theodora Wingert, Christiana Drake, Janet Aldrich, Michael Ong, Alpesh Amin, Rebecca A. Marmor, Laura N Godat, Maxime Cannesson, Michael A. Gropper, Garth H. Utter, CHRISTIAN E SANDROCK, Christian Bime, Jarrod Mosier, Vignesh Subbian, JASON Y ADAMS, Nicholas J. Kenyon, TIMOTHY E ALBERTSON, Joe G.N. Garcia, Ivo Abraham</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -1849,22 +1849,22 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4387806949</t>
+          <t>https://openalex.org/W4387268415</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>A Least Absolute Shrinkage and Selection Operator-Derived Predictive Model for Postoperative Respiratory Failure in a Heterogeneous Adult Elective Surgery Patient Population</t>
+          <t>A LASSO-DERIVED PREDICTIVE MODEL FOR POSTOPERATIVE RESPIRATORY FAILURE IN A HETEROGENEOUS ADULT ELECTIVE SURGERY PATIENT POPULATION</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>2023-12-01</t>
+          <t>2023-10-01</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>CHEST Critical Care</t>
+          <t>Chest</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
@@ -1874,22 +1874,22 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1016/j.chstcc.2023.100025</t>
+          <t>https://doi.org/10.1016/j.chest.2023.07.1061</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>cc-by</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>publishedVersion</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>hybrid</t>
+          <t>closed</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
@@ -1914,7 +1914,7 @@
       </c>
       <c r="P18" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1016/j.chstcc.2023.100025</t>
+          <t>https://doi.org/10.1016/j.chest.2023.07.1061</t>
         </is>
       </c>
       <c r="Q18" t="inlineStr">
@@ -1926,42 +1926,42 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Leora I. Horwitz, Tanayott Thaweethai, Shari B. Brosnahan, Mine S. Cicek, Megan L. Fitzgerald, Jason D Goldman, Rachel Hess, Sally Hodder, Vanessa L. Jacoby, Michael R. Jordan, Jerry A. Krishnan, Adeyinka O. Laiyemo, Torri D. Metz, Lauren M. Nichols, Rachel E. Patzer, A. S. C. Sekar, Nora G. Singer, Lauren E. Stiles, Barbara S. Taylor, Shifa Ahmed, Heather Algren, Khamal Anglin, Lisa Aponte‐Soto, Hassan Ashktorab, Ingrid V. Bassett, Brahmchetna Bedi, Nahid Bhadelia, Christian Bime, Marie-Abèle Bind, Lora Black, Andra L. Blomkalns, Hassan Brim, Mario Castro, James Chan, Alexander Charney, Benjamin Chen, Lei Chen, Peter Chen, David Chestek, Lori B. Chibnik, Dominic C. Chow, Helen Y. Chu, Rebecca G. Clifton, Shelby Collins, Maged M. Costantine, Sushma K. Cribbs, Steven G. Deeks, John D. Dickinson, Sarah E. Donohue, Matthew S Durstenfeld, Ivette F. Emery, Kristine M. Erlandson, Julio C. Facelli, Rachael Farah-Abraham, Aloke V. Finn, Michael B. Fischer, Valerie J. Flaherman, Judes Fleurimont, Vivian Fonseca, Emily J. Gallagher, Jennifer C. Gander, Maria Laura Gennaro, Kelly S. Gibson, Minjoung Go, Steven N. Goodman, Joey P. Granger, Frank L. Greenway, James Lee Hafner, Jenny E. Han, Michelle Harkins, Kristine S.P. Hauser, James R. Heath, Carla R. Hernandez, On Ho, Matthew Hoffman, Susan E. Hoover, Carol R. Horowitz, Hui-Chu Hsu, Priscilla Y. Hsue, Brenna L. Hughes, Prasanna Jagannathan, Judith A. James, J. John, Sarah E. Jolley, Suzanne E. Judd, Joy J. Juskowich, Diane G. Kanjilal, Elizabeth W. Karlson, Stuart D. Katz, John D. Kelly, Sarah Kelly, Arthur Y. Kim, John P. Kirwan, Kenneth S. Knox, Andre Kumar, Michelle F. Lamendola-Essel, Margaret Lanca, Joyce K. Lee-lannotti, R. Craig Lefebvre, Bruce D. Levy</t>
+          <t>Jacqueline C. Stocking, Sandra L. Taylor, Shaosheng Fan, Theodora Wingert, Christiana Drake, Janet Aldrich, Michael Ong, Alpesh Amin, Rebecca A. Marmor, Laura N Godat, Maxime Cannesson, Michael A. Gropper, Garth H. Utter, Christian Sandrock, Christian Bime, Jarrod Mosier, Vignesh Subbian, Jason Adams, Nicholas J. Kenyon, Timothy E Albertson, Joe G.N. Garcia, Ivo Abraham</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Department of Population Health, NYU Grossman School of Medicine, New York, NY, USA; Department of Biostatistics, Massachusetts General Hospital, Boston, MA, USA; Division of Pulmonary Critical Care and Sleep Medicine, NYU Langone Health, New York, NY, USA; Department of Laboratory Medicine and Pathology, Mayo Clinic, Rochester, MN, USA; Patient Led Research Collaboration on COVID-19, Washington, DC, USA; Division of Infectious Diseases, Providence Swedish Medical Center, Seattle, WA, USA; Department of Population Health Sciences and Internal Medicine, University of Utah School of Medicine, Salt Lake City, UT, USA; Department of Medicine, West Virginia University, Morgantown, WV, USA; Department of Obstetrics, Gynecology, and Reproductive Sciences, University of California, San Francisco, San Francisco, CA, USA; Division of Geographic Medicine and Infectious Diseases, Tufts Medical Center, Medford, MA, USA; Department of Medicine, University of Illinois Chicago, Chicago, IL, USA; Department of Medicine, Howard University, Washington DC, USA; Department of Obstetrics and Gynecology, University of Utah Health, Salt Lake City, UT, USA; Body Politic COVID-19 Support Group, Boston, MA, USA; Department of Medicine and Surgery, Health Services Research Center, Emory University School of Medicine, Atlanta, GA, USA; Patient Led Research Collaboration on COVID-19, Washington, DC, USA; Department of Medicine and Rheumatology, The MetroHealth Medical Center, Cleveland, OH, USA; Department of Neurology, Stony Brook University Renaissance School of Medicine, Stony Brook, NY, USA; Department of Medicine, Division of Infectious Diseases and Infectious Diseases, Long School of Medicine, University of Texas Health Science Center San Antonio, San Antonio, TX, USA; Department of Biostatistics, Massachusetts General Hospital, Boston, MA, USA; Swedish Center for Research and Innovation, Providence Swedish Medical Center, Seattle, WA, USA; Department of Epidemiology and Biostatistics, University of California at San Francisco Institute of Global Health Sciences, San Francisco, San Francisco, CA, USA; College of Science and Health, Department of Health Sciences, DePaul University, Chicago, IL, USA; Department of Medicine, Howard University, Washington DC, USA; Medical Practice Evaluation Center, Department of Medicine, Massachusetts General Hospital, Harvard Medical School, Boston, MA, USA; Department of Medicine, Emory University, Atlanta, GA, USA; Center for Emerging Infectious Diseases Policy and Research, Boston University School of Medicine, Boston, MA, USA; Department of Medicine, University of Arizona, Tucson, AZ, USA; Department of Biostatistics, Massachusetts General Hospital, Boston, MA, USA; Department of Clinical Research, Sanford Research, Sioux Falls, SD, USA; Department of Emergency Medicine, Stanford University, Stanford, CA, USA; Department of Pathology, Howard University, Washington, DC, USA; Division of Pulmonary and Critical Care, University of Kansas Medical Center, Kansas City, KS, USA; Department of Biostatistics, Massachusetts General Hospital, Boston, MA, USA; Charles Bronfman Institute for Personalized Medicine, Icahn School of Medicine at Mount Sinai, New York, NY, USA; Division of Infectious Disease, Department of Medicine, Icahn School of Medicine at Mount Sinai, New York, NY, USA; Department of Medicine, Brigham and Women's Hospital, Boston, MA, USA; Department of Medicine, Cedars-Sinai Medical Center, Los Angeles, CA, USA; Department of Emergency Medicine, University of Illinois Chicago, Chicago, IL, USA; Department of Neurology, Massachusetts General Hospital, Boston, MA, USA; Department of Medicine, University of Hawaii at Manoa John A. Burns School of Medicine, Honolulu, HI, USA; Department of Allergy &amp; Infectious Diseases, University of Washington, Seattle, WA, USA; Department of Biostatistics, George Washington University, Washington DC, USA; Department of Medicine, Emory University, Atlanta, GA, USA; Department of Obstetrics and Gynecology, The Ohio State University Hospital, Columbus, OH, USA; Department of Medicine, Emory University, Atlanta, GA, USA; Department of Medicine, University of California, San Francisco, San Francisco, CA, USA; Department of Internal Medicine, University of Nebraska Medical Center, Omaha, NE, USA; Department of Research Services, University of Illinois College of Medicine, Peoria, IL, USA; Department of Medicine, Division of Cardiology at Zuckerberg San Francisco General, University of California San Francisco, San Francisco, CA, USA; MaineHealth Institute for Research, MaineHealth, Scarborough, ME, USA; Department of Medicine, University of Colorado Anschutz Medical Campus, Aurora, CO, USA; Department of Biomedical Informatics and Clinical and Translational Science Institute, University of Utah, Salt Lake City, UT, USA; Department of Medicine, Division of Infectious Diseases, Emory University School of Medicine, Atlanta, GA, USA; Department of Pathology, CVPath Institute, Gaithersburg, MD, USA; Department of Medicine, Division of Infectious Diseases and Infectious Diseases, Long School of Medicine, University of Texas Health Science Center San Antonio, San Antonio, TX, USA; Department of Pediatrics, University of California, San Francisco, San Francisco, CA, USA; Mile Square Health Center, University of Illinois Chicago, University of Illinois Chicago, IL, USA; Department of Medicine, Tulane University School of Medicine, New Orleans, LA, USA; Department of Endocrinology, Diabetes and Bone Disease, Icahn School of Medicine at Mount Sinai, New York, NY, USA; Center for Research and Evaluation, Kaiser Permanente of Georgia, Atlanta, GA, USA; Public Health Research Institute and Department of Medicine, Rutgers New Jersey Medical School, Newark, NJ, USA; Department of Obstetrics and Gynecology, MetroHealth System, Cleveland, OH, USA; Department of Medicine, Stanford University, Stanford, CA, USA; Department of Epidemiology and Population Health, Stanford University School of Medicine, Stanford, CA, USA; Department of Physiology &amp; Biophysics, University of Mississippi Medical Center, Jackson, MS, USA; Clinical Trials, Pennington Biomedical Research Center, Baton Rouge, LA, USA; Department of Emergency Medicine, OSF Saint Francis Medical Center, Peoria, IL, USA; Department of Pulmonary and Critical Care, Emory University School of Medicine, Atlanta, GA, USA; Department of Internal Medicine University of New Mexico, Health Science Center, Albuquerque, NM, USA; Clinical Research Center, Beth Israel Deaconess Medical Center, Boston, MA, USA; Department of Bioengineering, Institute for Systems Biology, Seattle, WA, USA; Clinical Research Center, University Hospitals Cleveland Medical Center, Cleveland, OH, USA; Seattle Children's Therapeutics, Seattle, WA, USA; Department of Obstetrics and Gynecology, Christiana Care Health Services, Newark, DE, USA; Department of Clinical Research, Sanford Research, Sioux Falls, SD, USA; Institute for Health Equity Research, Icahn School of Medicine at Mount Sinai, New York, NY, USA; Department of Internal Medicine, University of Arizona, Phoenix, AZ, USA; Department of Medicine, University of California, San Francisco, San Francisco, CA, USA; Department of Obstetrics and Gynecology, Duke University, Durham, NC, USA; Department of Medicine, Stanford University, Stanford, CA, USA; Department of Arthritis &amp; Clinical Immunology, Oklahoma Medical Research Foundation, Oklahoma City, OK, USA; Department of Family Medicine, Cambridge Health Alliance, Cambridge, MA, USA; Department of Pulmonary and Critical Care Medicine, University of Colorado, Aurora, CO, USA; Department of Biostatistics, University of Alabama at Birmingham, Birmingham, AL, USA; Department of Medicine, Division of Infectious Diseases, West Virginia School of Medicine, Morgantown, WV, USA; Department of Infectious Diseases, Massachusetts General Hospital, Boston, MA, USA; Department of Medicine, Harvard Medical School, Boston, MA, USA; Department of Medicine, NYU Langone Health, New York, NY, USA; Department of Medicine, University of California, San Francisco, San Francisco, CA, USA; Department of Pediatrics &amp; Department of Research Services, University of Illinois College of Medicine, Peoria, IL, USA; Department of Infectious Diseases, Massachusetts General Hospital, Boston, MA, USA; Department Integrated Physiology and Molecular Medicine, Pennington Biomedical Research Center, Baton Rouge, LA. USA; Department of Internal Medicine, University of Arizona, Phoenix, AZ, USA; Department of Medicine, Stanford University, Stanford, CA, USA; Department of Medicine, NYU Langone Health, New York, NY, USA; Department of Psychiatry, Harvard Medical School, MA, USA; Department of Internal Medicine and Neurology, University of Arizona College of Medicine Phoenix, Phoenix, AZ, USA; Communications Practice Area, RTI International, Research Triangle Park, NC, USA; Department of Internal Medicine, Brigham and Women's Hospital, Boston, MA, USA</t>
+          <t xml:space="preserve">; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; </t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4378610411</t>
+          <t>https://openalex.org/W4387806949</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Researching COVID to enhance recovery (RECOVER) adult study protocol: Rationale, objectives, and design</t>
+          <t>A Least Absolute Shrinkage and Selection Operator-Derived Predictive Model for Postoperative Respiratory Failure in a Heterogeneous Adult Elective Surgery Patient Population</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>2023-05-28</t>
+          <t>2023-12-01</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>medRxiv (Cold Spring Harbor Laboratory)</t>
+          <t>CHEST Critical Care</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Cold Spring Harbor Laboratory</t>
+          <t>Elsevier BV</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1101/2023.05.26.23290475</t>
+          <t>https://doi.org/10.1016/j.chstcc.2023.100025</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
@@ -1971,12 +1971,12 @@
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>submittedVersion</t>
+          <t>publishedVersion</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>green</t>
+          <t>hybrid</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
@@ -2001,7 +2001,7 @@
       </c>
       <c r="P19" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1101/2023.05.26.23290475</t>
+          <t>https://doi.org/10.1016/j.chstcc.2023.100025</t>
         </is>
       </c>
       <c r="Q19" t="inlineStr">
